--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
@@ -58870,19 +58870,19 @@
         <v>6</v>
       </c>
       <c r="AV278">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW278">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX278">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY278">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ278">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA278">
         <v>10</v>
@@ -59076,19 +59076,19 @@
         <v>4</v>
       </c>
       <c r="AV279">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX279">
+        <v>7</v>
+      </c>
+      <c r="AY279">
         <v>6</v>
       </c>
-      <c r="AY279">
-        <v>5</v>
-      </c>
       <c r="AZ279">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA279">
         <v>3</v>
@@ -59279,22 +59279,22 @@
         <v>2.46</v>
       </c>
       <c r="AU280">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV280">
+        <v>8</v>
+      </c>
+      <c r="AW280">
+        <v>6</v>
+      </c>
+      <c r="AX280">
         <v>4</v>
       </c>
-      <c r="AW280">
-        <v>2</v>
-      </c>
-      <c r="AX280">
-        <v>3</v>
-      </c>
       <c r="AY280">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ280">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA280">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="438">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1326,6 +1326,9 @@
   <si>
     <t>['27', '61']</t>
   </si>
+  <si>
+    <t>['2', '5', '65', '75']</t>
+  </si>
 </sst>
 </file>
 
@@ -1686,7 +1689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP288"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2026,7 +2029,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ2">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2641,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ5">
         <v>1.25</v>
@@ -6970,7 +6973,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>0.84</v>
@@ -7173,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ27">
         <v>1.13</v>
@@ -9854,7 +9857,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ40">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR40">
         <v>0.88</v>
@@ -10881,7 +10884,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ45">
         <v>1.31</v>
@@ -13147,7 +13150,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ56">
         <v>1.38</v>
@@ -14180,7 +14183,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ61">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR61">
         <v>1.86</v>
@@ -15210,7 +15213,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ66">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR66">
         <v>1.7</v>
@@ -16649,7 +16652,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ73">
         <v>0.8100000000000001</v>
@@ -19533,7 +19536,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ87">
         <v>0.9399999999999999</v>
@@ -20154,7 +20157,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR90">
         <v>1.91</v>
@@ -23038,7 +23041,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ104">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR104">
         <v>1.4</v>
@@ -23241,7 +23244,7 @@
         <v>2.4</v>
       </c>
       <c r="AP105">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ105">
         <v>2.25</v>
@@ -26949,7 +26952,7 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ123">
         <v>0.88</v>
@@ -27158,7 +27161,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ124">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -30863,7 +30866,7 @@
         <v>2.14</v>
       </c>
       <c r="AP142">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ142">
         <v>1.75</v>
@@ -31278,7 +31281,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -35398,7 +35401,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ164">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR164">
         <v>1.54</v>
@@ -35807,7 +35810,7 @@
         <v>1.44</v>
       </c>
       <c r="AP166">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ166">
         <v>1.5</v>
@@ -40342,7 +40345,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ188">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR188">
         <v>1.8</v>
@@ -40751,7 +40754,7 @@
         <v>0.7</v>
       </c>
       <c r="AP190">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ190">
         <v>0.6899999999999999</v>
@@ -43223,7 +43226,7 @@
         <v>1.18</v>
       </c>
       <c r="AP202">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ202">
         <v>1.19</v>
@@ -43844,7 +43847,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ205">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR205">
         <v>1.74</v>
@@ -48579,7 +48582,7 @@
         <v>1.58</v>
       </c>
       <c r="AP228">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ228">
         <v>1.81</v>
@@ -49818,7 +49821,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ234">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR234">
         <v>1.43</v>
@@ -53523,7 +53526,7 @@
         <v>0.92</v>
       </c>
       <c r="AP252">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ252">
         <v>0.9399999999999999</v>
@@ -53732,7 +53735,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ253">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR253">
         <v>1.77</v>
@@ -55998,7 +56001,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ264">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR264">
         <v>1.28</v>
@@ -56613,7 +56616,7 @@
         <v>0.64</v>
       </c>
       <c r="AP267">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ267">
         <v>0.8100000000000001</v>
@@ -61018,6 +61021,212 @@
       </c>
       <c r="BP288">
         <v>1.69</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>6684238</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45419.5625</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>73</v>
+      </c>
+      <c r="H289" t="s">
+        <v>84</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>2</v>
+      </c>
+      <c r="K289">
+        <v>2</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>4</v>
+      </c>
+      <c r="N289">
+        <v>4</v>
+      </c>
+      <c r="O289" t="s">
+        <v>96</v>
+      </c>
+      <c r="P289" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q289">
+        <v>3.6</v>
+      </c>
+      <c r="R289">
+        <v>2.25</v>
+      </c>
+      <c r="S289">
+        <v>2.5</v>
+      </c>
+      <c r="T289">
+        <v>1.27</v>
+      </c>
+      <c r="U289">
+        <v>3.5</v>
+      </c>
+      <c r="V289">
+        <v>2.25</v>
+      </c>
+      <c r="W289">
+        <v>1.58</v>
+      </c>
+      <c r="X289">
+        <v>4.75</v>
+      </c>
+      <c r="Y289">
+        <v>1.15</v>
+      </c>
+      <c r="Z289">
+        <v>3.7</v>
+      </c>
+      <c r="AA289">
+        <v>4</v>
+      </c>
+      <c r="AB289">
+        <v>1.8</v>
+      </c>
+      <c r="AC289">
+        <v>1.03</v>
+      </c>
+      <c r="AD289">
+        <v>19.25</v>
+      </c>
+      <c r="AE289">
+        <v>1.17</v>
+      </c>
+      <c r="AF289">
+        <v>5.15</v>
+      </c>
+      <c r="AG289">
+        <v>1.53</v>
+      </c>
+      <c r="AH289">
+        <v>2.35</v>
+      </c>
+      <c r="AI289">
+        <v>1.48</v>
+      </c>
+      <c r="AJ289">
+        <v>2.5</v>
+      </c>
+      <c r="AK289">
+        <v>1.73</v>
+      </c>
+      <c r="AL289">
+        <v>1.22</v>
+      </c>
+      <c r="AM289">
+        <v>1.33</v>
+      </c>
+      <c r="AN289">
+        <v>0.93</v>
+      </c>
+      <c r="AO289">
+        <v>0.6</v>
+      </c>
+      <c r="AP289">
+        <v>0.88</v>
+      </c>
+      <c r="AQ289">
+        <v>0.75</v>
+      </c>
+      <c r="AR289">
+        <v>1.4</v>
+      </c>
+      <c r="AS289">
+        <v>1.32</v>
+      </c>
+      <c r="AT289">
+        <v>2.72</v>
+      </c>
+      <c r="AU289">
+        <v>5</v>
+      </c>
+      <c r="AV289">
+        <v>11</v>
+      </c>
+      <c r="AW289">
+        <v>5</v>
+      </c>
+      <c r="AX289">
+        <v>7</v>
+      </c>
+      <c r="AY289">
+        <v>10</v>
+      </c>
+      <c r="AZ289">
+        <v>18</v>
+      </c>
+      <c r="BA289">
+        <v>2</v>
+      </c>
+      <c r="BB289">
+        <v>5</v>
+      </c>
+      <c r="BC289">
+        <v>7</v>
+      </c>
+      <c r="BD289">
+        <v>2.43</v>
+      </c>
+      <c r="BE289">
+        <v>8.5</v>
+      </c>
+      <c r="BF289">
+        <v>1.75</v>
+      </c>
+      <c r="BG289">
+        <v>1.1</v>
+      </c>
+      <c r="BH289">
+        <v>5.4</v>
+      </c>
+      <c r="BI289">
+        <v>1.23</v>
+      </c>
+      <c r="BJ289">
+        <v>3.56</v>
+      </c>
+      <c r="BK289">
+        <v>1.44</v>
+      </c>
+      <c r="BL289">
+        <v>2.58</v>
+      </c>
+      <c r="BM289">
+        <v>1.85</v>
+      </c>
+      <c r="BN289">
+        <v>1.95</v>
+      </c>
+      <c r="BO289">
+        <v>2.19</v>
+      </c>
+      <c r="BP289">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="438">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -895,6 +895,9 @@
     <t>['18', '54', '65', '88']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['22', '45+1', '66']</t>
   </si>
   <si>
@@ -989,9 +992,6 @@
   </si>
   <si>
     <t>['27', '39', '90+2']</t>
-  </si>
-  <si>
-    <t>['7']</t>
   </si>
   <si>
     <t>['90+9']</t>
@@ -1689,7 +1689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1948,7 +1948,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2154,7 +2154,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2360,7 +2360,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2566,7 +2566,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2772,7 +2772,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -3596,7 +3596,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ11">
         <v>0.6899999999999999</v>
@@ -4008,7 +4008,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -4420,7 +4420,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q14">
         <v>2.85</v>
@@ -4626,7 +4626,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q15">
         <v>2.7</v>
@@ -5038,7 +5038,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -5119,7 +5119,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5244,7 +5244,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ18">
         <v>0.8100000000000001</v>
@@ -5450,7 +5450,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q19">
         <v>2.7</v>
@@ -5862,7 +5862,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -6068,7 +6068,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -6480,7 +6480,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -7098,7 +7098,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -7304,7 +7304,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7510,7 +7510,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7716,7 +7716,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ30">
         <v>0.8100000000000001</v>
@@ -8334,7 +8334,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8621,7 +8621,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ34">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR34">
         <v>1.39</v>
@@ -9776,7 +9776,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9982,7 +9982,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10060,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ41">
         <v>1.13</v>
@@ -10394,7 +10394,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q43">
         <v>2.7</v>
@@ -10600,7 +10600,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -11296,7 +11296,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ47">
         <v>0.9399999999999999</v>
@@ -11424,7 +11424,7 @@
         <v>126</v>
       </c>
       <c r="P48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11630,7 +11630,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11836,7 +11836,7 @@
         <v>128</v>
       </c>
       <c r="P50" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12123,7 +12123,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>1.19</v>
@@ -12248,7 +12248,7 @@
         <v>130</v>
       </c>
       <c r="P52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -13153,7 +13153,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ56">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR56">
         <v>1.5</v>
@@ -13278,7 +13278,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q57">
         <v>2.51</v>
@@ -13356,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -13484,7 +13484,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q58">
         <v>2.78</v>
@@ -13690,7 +13690,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13896,7 +13896,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -14102,7 +14102,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -14308,7 +14308,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14514,7 +14514,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14720,7 +14720,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -15210,7 +15210,7 @@
         <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ66">
         <v>0.75</v>
@@ -17270,7 +17270,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ76">
         <v>1.25</v>
@@ -17479,7 +17479,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -19330,7 +19330,7 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ86">
         <v>1.75</v>
@@ -21599,7 +21599,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ97">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -22214,7 +22214,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ100">
         <v>1.31</v>
@@ -24689,7 +24689,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ112">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR112">
         <v>1.68</v>
@@ -24892,7 +24892,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ113">
         <v>1.13</v>
@@ -25716,7 +25716,7 @@
         <v>0.6</v>
       </c>
       <c r="AP117">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ117">
         <v>0.6899999999999999</v>
@@ -28191,7 +28191,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ129">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR129">
         <v>1.84</v>
@@ -29012,7 +29012,7 @@
         <v>0.83</v>
       </c>
       <c r="AP133">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ133">
         <v>0.8100000000000001</v>
@@ -29424,7 +29424,7 @@
         <v>1.29</v>
       </c>
       <c r="AP135">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ135">
         <v>1.19</v>
@@ -31896,7 +31896,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ147">
         <v>0.6899999999999999</v>
@@ -32102,7 +32102,7 @@
         <v>1.86</v>
       </c>
       <c r="AP148">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ148">
         <v>1.81</v>
@@ -32517,7 +32517,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ150">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR150">
         <v>1.28</v>
@@ -34577,7 +34577,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ160">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR160">
         <v>1.72</v>
@@ -34986,7 +34986,7 @@
         <v>1.13</v>
       </c>
       <c r="AP162">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ162">
         <v>0.9399999999999999</v>
@@ -35192,7 +35192,7 @@
         <v>1.11</v>
       </c>
       <c r="AP163">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ163">
         <v>0.9399999999999999</v>
@@ -37252,7 +37252,7 @@
         <v>2.11</v>
       </c>
       <c r="AP173">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ173">
         <v>2.25</v>
@@ -38285,7 +38285,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ178">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR178">
         <v>1.42</v>
@@ -38488,7 +38488,7 @@
         <v>1.89</v>
       </c>
       <c r="AP179">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ179">
         <v>1.81</v>
@@ -39724,7 +39724,7 @@
         <v>2.11</v>
       </c>
       <c r="AP185">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ185">
         <v>1.75</v>
@@ -40882,7 +40882,7 @@
         <v>232</v>
       </c>
       <c r="P191" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q191">
         <v>2.65</v>
@@ -41372,7 +41372,7 @@
         <v>2</v>
       </c>
       <c r="AP193">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ193">
         <v>2.25</v>
@@ -41787,7 +41787,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ195">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR195">
         <v>1.38</v>
@@ -42324,7 +42324,7 @@
         <v>237</v>
       </c>
       <c r="P198" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -43844,7 +43844,7 @@
         <v>0.64</v>
       </c>
       <c r="AP205">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ205">
         <v>0.75</v>
@@ -44384,7 +44384,7 @@
         <v>245</v>
       </c>
       <c r="P208" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q208">
         <v>2.25</v>
@@ -46110,7 +46110,7 @@
         <v>0.82</v>
       </c>
       <c r="AP216">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ216">
         <v>0.88</v>
@@ -46525,7 +46525,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ218">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR218">
         <v>1.75</v>
@@ -47268,7 +47268,7 @@
         <v>152</v>
       </c>
       <c r="P222" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q222">
         <v>3.3</v>
@@ -47552,7 +47552,7 @@
         <v>1.17</v>
       </c>
       <c r="AP223">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ223">
         <v>1.13</v>
@@ -48376,7 +48376,7 @@
         <v>0.5</v>
       </c>
       <c r="AP227">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ227">
         <v>0.8100000000000001</v>
@@ -51466,7 +51466,7 @@
         <v>1.08</v>
       </c>
       <c r="AP242">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ242">
         <v>1.19</v>
@@ -51675,7 +51675,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ243">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR243">
         <v>1.68</v>
@@ -52084,7 +52084,7 @@
         <v>1.15</v>
       </c>
       <c r="AP245">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ245">
         <v>1.13</v>
@@ -54556,7 +54556,7 @@
         <v>1</v>
       </c>
       <c r="AP257">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ257">
         <v>1.25</v>
@@ -55380,10 +55380,10 @@
         <v>1.29</v>
       </c>
       <c r="AP261">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ261">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR261">
         <v>1.65</v>
@@ -58058,7 +58058,7 @@
         <v>1.4</v>
       </c>
       <c r="AP274">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ274">
         <v>1.31</v>
@@ -58473,7 +58473,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ276">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR276">
         <v>1.49</v>
@@ -58882,7 +58882,7 @@
         <v>0.67</v>
       </c>
       <c r="AP278">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ278">
         <v>0.6899999999999999</v>
@@ -61227,6 +61227,418 @@
       </c>
       <c r="BP289">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>6684243</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45422.5625</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>79</v>
+      </c>
+      <c r="H290" t="s">
+        <v>70</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>1</v>
+      </c>
+      <c r="O290" t="s">
+        <v>293</v>
+      </c>
+      <c r="P290" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q290">
+        <v>3.7</v>
+      </c>
+      <c r="R290">
+        <v>2.6</v>
+      </c>
+      <c r="S290">
+        <v>2.2</v>
+      </c>
+      <c r="T290">
+        <v>1.2</v>
+      </c>
+      <c r="U290">
+        <v>4</v>
+      </c>
+      <c r="V290">
+        <v>1.83</v>
+      </c>
+      <c r="W290">
+        <v>1.85</v>
+      </c>
+      <c r="X290">
+        <v>3.8</v>
+      </c>
+      <c r="Y290">
+        <v>1.22</v>
+      </c>
+      <c r="Z290">
+        <v>3.5</v>
+      </c>
+      <c r="AA290">
+        <v>4</v>
+      </c>
+      <c r="AB290">
+        <v>1.91</v>
+      </c>
+      <c r="AC290">
+        <v>1.01</v>
+      </c>
+      <c r="AD290">
+        <v>11</v>
+      </c>
+      <c r="AE290">
+        <v>1.07</v>
+      </c>
+      <c r="AF290">
+        <v>7</v>
+      </c>
+      <c r="AG290">
+        <v>1.28</v>
+      </c>
+      <c r="AH290">
+        <v>3.05</v>
+      </c>
+      <c r="AI290">
+        <v>1.32</v>
+      </c>
+      <c r="AJ290">
+        <v>3.1</v>
+      </c>
+      <c r="AK290">
+        <v>1.83</v>
+      </c>
+      <c r="AL290">
+        <v>1.2</v>
+      </c>
+      <c r="AM290">
+        <v>1.3</v>
+      </c>
+      <c r="AN290">
+        <v>1.38</v>
+      </c>
+      <c r="AO290">
+        <v>1.38</v>
+      </c>
+      <c r="AP290">
+        <v>1.47</v>
+      </c>
+      <c r="AQ290">
+        <v>1.29</v>
+      </c>
+      <c r="AR290">
+        <v>1.69</v>
+      </c>
+      <c r="AS290">
+        <v>1.62</v>
+      </c>
+      <c r="AT290">
+        <v>3.31</v>
+      </c>
+      <c r="AU290">
+        <v>3</v>
+      </c>
+      <c r="AV290">
+        <v>3</v>
+      </c>
+      <c r="AW290">
+        <v>9</v>
+      </c>
+      <c r="AX290">
+        <v>5</v>
+      </c>
+      <c r="AY290">
+        <v>12</v>
+      </c>
+      <c r="AZ290">
+        <v>8</v>
+      </c>
+      <c r="BA290">
+        <v>4</v>
+      </c>
+      <c r="BB290">
+        <v>9</v>
+      </c>
+      <c r="BC290">
+        <v>13</v>
+      </c>
+      <c r="BD290">
+        <v>2.32</v>
+      </c>
+      <c r="BE290">
+        <v>8.5</v>
+      </c>
+      <c r="BF290">
+        <v>1.82</v>
+      </c>
+      <c r="BG290">
+        <v>1.16</v>
+      </c>
+      <c r="BH290">
+        <v>4.5</v>
+      </c>
+      <c r="BI290">
+        <v>1.3</v>
+      </c>
+      <c r="BJ290">
+        <v>3.05</v>
+      </c>
+      <c r="BK290">
+        <v>1.55</v>
+      </c>
+      <c r="BL290">
+        <v>2.25</v>
+      </c>
+      <c r="BM290">
+        <v>1.98</v>
+      </c>
+      <c r="BN290">
+        <v>1.82</v>
+      </c>
+      <c r="BO290">
+        <v>2.45</v>
+      </c>
+      <c r="BP290">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>6684246</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45422.5625</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>86</v>
+      </c>
+      <c r="H291" t="s">
+        <v>76</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+      <c r="O291" t="s">
+        <v>96</v>
+      </c>
+      <c r="P291" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q291">
+        <v>2.5</v>
+      </c>
+      <c r="R291">
+        <v>2.45</v>
+      </c>
+      <c r="S291">
+        <v>3.4</v>
+      </c>
+      <c r="T291">
+        <v>1.25</v>
+      </c>
+      <c r="U291">
+        <v>3.6</v>
+      </c>
+      <c r="V291">
+        <v>2.15</v>
+      </c>
+      <c r="W291">
+        <v>1.62</v>
+      </c>
+      <c r="X291">
+        <v>4.4</v>
+      </c>
+      <c r="Y291">
+        <v>1.16</v>
+      </c>
+      <c r="Z291">
+        <v>2</v>
+      </c>
+      <c r="AA291">
+        <v>3.4</v>
+      </c>
+      <c r="AB291">
+        <v>3.75</v>
+      </c>
+      <c r="AC291">
+        <v>1.02</v>
+      </c>
+      <c r="AD291">
+        <v>13</v>
+      </c>
+      <c r="AE291">
+        <v>1.12</v>
+      </c>
+      <c r="AF291">
+        <v>5.5</v>
+      </c>
+      <c r="AG291">
+        <v>1.44</v>
+      </c>
+      <c r="AH291">
+        <v>2.4</v>
+      </c>
+      <c r="AI291">
+        <v>1.42</v>
+      </c>
+      <c r="AJ291">
+        <v>2.6</v>
+      </c>
+      <c r="AK291">
+        <v>1.28</v>
+      </c>
+      <c r="AL291">
+        <v>1.25</v>
+      </c>
+      <c r="AM291">
+        <v>1.77</v>
+      </c>
+      <c r="AN291">
+        <v>1.44</v>
+      </c>
+      <c r="AO291">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP291">
+        <v>1.41</v>
+      </c>
+      <c r="AQ291">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR291">
+        <v>1.64</v>
+      </c>
+      <c r="AS291">
+        <v>1.34</v>
+      </c>
+      <c r="AT291">
+        <v>2.98</v>
+      </c>
+      <c r="AU291">
+        <v>3</v>
+      </c>
+      <c r="AV291">
+        <v>6</v>
+      </c>
+      <c r="AW291">
+        <v>4</v>
+      </c>
+      <c r="AX291">
+        <v>3</v>
+      </c>
+      <c r="AY291">
+        <v>7</v>
+      </c>
+      <c r="AZ291">
+        <v>9</v>
+      </c>
+      <c r="BA291">
+        <v>1</v>
+      </c>
+      <c r="BB291">
+        <v>2</v>
+      </c>
+      <c r="BC291">
+        <v>3</v>
+      </c>
+      <c r="BD291">
+        <v>1.91</v>
+      </c>
+      <c r="BE291">
+        <v>8</v>
+      </c>
+      <c r="BF291">
+        <v>2.1</v>
+      </c>
+      <c r="BG291">
+        <v>1.21</v>
+      </c>
+      <c r="BH291">
+        <v>3.8</v>
+      </c>
+      <c r="BI291">
+        <v>1.4</v>
+      </c>
+      <c r="BJ291">
+        <v>2.65</v>
+      </c>
+      <c r="BK291">
+        <v>1.72</v>
+      </c>
+      <c r="BL291">
+        <v>2.02</v>
+      </c>
+      <c r="BM291">
+        <v>2.15</v>
+      </c>
+      <c r="BN291">
+        <v>1.61</v>
+      </c>
+      <c r="BO291">
+        <v>2.8</v>
+      </c>
+      <c r="BP291">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="442">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -898,6 +898,18 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['21', '45+5']</t>
+  </si>
+  <si>
+    <t>['43', '52', '64']</t>
+  </si>
+  <si>
+    <t>['19', '45+3', '66']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['22', '45+1', '66']</t>
   </si>
   <si>
@@ -1689,7 +1701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP291"/>
+  <dimension ref="A1:BP295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1948,7 +1960,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2154,7 +2166,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2360,7 +2372,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2441,7 +2453,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ4">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2566,7 +2578,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2772,7 +2784,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -3596,7 +3608,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -4008,7 +4020,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -4086,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ12">
         <v>0.9399999999999999</v>
@@ -4295,7 +4307,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ13">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4420,7 +4432,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q14">
         <v>2.85</v>
@@ -4498,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ14">
         <v>0.9399999999999999</v>
@@ -4626,7 +4638,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q15">
         <v>2.7</v>
@@ -4707,7 +4719,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4910,10 +4922,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ16">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5038,7 +5050,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -5244,7 +5256,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -5450,7 +5462,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q19">
         <v>2.7</v>
@@ -5528,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19">
         <v>1.19</v>
@@ -5862,7 +5874,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5943,7 +5955,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ21">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR21">
         <v>1.09</v>
@@ -6068,7 +6080,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -6480,7 +6492,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -7098,7 +7110,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -7304,7 +7316,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7382,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28">
         <v>0.88</v>
@@ -7510,7 +7522,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7588,7 +7600,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ29">
         <v>2.25</v>
@@ -7716,7 +7728,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7797,7 +7809,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ30">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR30">
         <v>1.77</v>
@@ -8000,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ31">
         <v>0.9399999999999999</v>
@@ -8334,7 +8346,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8415,7 +8427,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ33">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR33">
         <v>1.38</v>
@@ -9236,7 +9248,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37">
         <v>0.9399999999999999</v>
@@ -9776,7 +9788,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9982,7 +9994,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10266,7 +10278,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -10394,7 +10406,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q43">
         <v>2.7</v>
@@ -10600,7 +10612,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10887,7 +10899,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ45">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR45">
         <v>1.57</v>
@@ -11093,7 +11105,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ46">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR46">
         <v>2.47</v>
@@ -11424,7 +11436,7 @@
         <v>126</v>
       </c>
       <c r="P48" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11502,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
         <v>0.9399999999999999</v>
@@ -11630,7 +11642,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11711,7 +11723,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11836,7 +11848,7 @@
         <v>128</v>
       </c>
       <c r="P50" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11917,7 +11929,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR50">
         <v>1.45</v>
@@ -12248,7 +12260,7 @@
         <v>130</v>
       </c>
       <c r="P52" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12326,7 +12338,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ52">
         <v>0.88</v>
@@ -12532,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ53">
         <v>0.8100000000000001</v>
@@ -13278,7 +13290,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q57">
         <v>2.51</v>
@@ -13484,7 +13496,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q58">
         <v>2.78</v>
@@ -13690,7 +13702,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13896,7 +13908,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13977,7 +13989,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ60">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR60">
         <v>1</v>
@@ -14102,7 +14114,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -14308,7 +14320,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14386,7 +14398,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ62">
         <v>1.13</v>
@@ -14514,7 +14526,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14595,7 +14607,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ63">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -15007,7 +15019,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ65">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR65">
         <v>2.42</v>
@@ -15132,7 +15144,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q66">
         <v>2.8</v>
@@ -15750,7 +15762,7 @@
         <v>96</v>
       </c>
       <c r="P69" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q69">
         <v>2.35</v>
@@ -15956,7 +15968,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -16034,7 +16046,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ70">
         <v>1.75</v>
@@ -16240,7 +16252,7 @@
         <v>1.25</v>
       </c>
       <c r="AP71">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71">
         <v>0.88</v>
@@ -16574,7 +16586,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16655,7 +16667,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ73">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR73">
         <v>1.62</v>
@@ -16780,7 +16792,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q74">
         <v>2.05</v>
@@ -16986,7 +16998,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17685,7 +17697,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ78">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR78">
         <v>1.67</v>
@@ -17810,7 +17822,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -18094,10 +18106,10 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ80">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR80">
         <v>1.67</v>
@@ -18222,7 +18234,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q81">
         <v>3.4</v>
@@ -18428,7 +18440,7 @@
         <v>118</v>
       </c>
       <c r="P82" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q82">
         <v>2.75</v>
@@ -18506,7 +18518,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ82">
         <v>1.13</v>
@@ -19252,7 +19264,7 @@
         <v>159</v>
       </c>
       <c r="P86" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19458,7 +19470,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19664,7 +19676,7 @@
         <v>160</v>
       </c>
       <c r="P88" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19745,7 +19757,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ88">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR88">
         <v>1.7</v>
@@ -19870,7 +19882,7 @@
         <v>161</v>
       </c>
       <c r="P89" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -20282,7 +20294,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20360,7 +20372,7 @@
         <v>1.2</v>
       </c>
       <c r="AP91">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ91">
         <v>1.13</v>
@@ -20488,7 +20500,7 @@
         <v>106</v>
       </c>
       <c r="P92" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20569,7 +20581,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ92">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR92">
         <v>1.43</v>
@@ -20900,7 +20912,7 @@
         <v>165</v>
       </c>
       <c r="P94" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20978,7 +20990,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ94">
         <v>1.19</v>
@@ -21184,7 +21196,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ95">
         <v>1.5</v>
@@ -21312,7 +21324,7 @@
         <v>167</v>
       </c>
       <c r="P96" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21518,7 +21530,7 @@
         <v>168</v>
       </c>
       <c r="P97" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q97">
         <v>3.4</v>
@@ -21724,7 +21736,7 @@
         <v>96</v>
       </c>
       <c r="P98" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21802,7 +21814,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ98">
         <v>1.13</v>
@@ -22011,7 +22023,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ99">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR99">
         <v>1.04</v>
@@ -22136,7 +22148,7 @@
         <v>170</v>
       </c>
       <c r="P100" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22217,7 +22229,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ100">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR100">
         <v>1.84</v>
@@ -22342,7 +22354,7 @@
         <v>171</v>
       </c>
       <c r="P101" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22548,7 +22560,7 @@
         <v>96</v>
       </c>
       <c r="P102" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22754,7 +22766,7 @@
         <v>96</v>
       </c>
       <c r="P103" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22960,7 +22972,7 @@
         <v>172</v>
       </c>
       <c r="P104" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -23038,7 +23050,7 @@
         <v>0.17</v>
       </c>
       <c r="AP104">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ104">
         <v>0.75</v>
@@ -23166,7 +23178,7 @@
         <v>99</v>
       </c>
       <c r="P105" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -23578,7 +23590,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -24196,7 +24208,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24274,10 +24286,10 @@
         <v>1.83</v>
       </c>
       <c r="AP110">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ110">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR110">
         <v>1.75</v>
@@ -24608,7 +24620,7 @@
         <v>176</v>
       </c>
       <c r="P112" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24686,7 +24698,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ112">
         <v>1.29</v>
@@ -24814,7 +24826,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -25020,7 +25032,7 @@
         <v>178</v>
       </c>
       <c r="P114" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q114">
         <v>2.75</v>
@@ -25226,7 +25238,7 @@
         <v>179</v>
       </c>
       <c r="P115" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q115">
         <v>2.4</v>
@@ -25304,7 +25316,7 @@
         <v>0.67</v>
       </c>
       <c r="AP115">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ115">
         <v>1.25</v>
@@ -25513,7 +25525,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ116">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR116">
         <v>1.15</v>
@@ -25638,7 +25650,7 @@
         <v>181</v>
       </c>
       <c r="P117" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25719,7 +25731,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ117">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR117">
         <v>1.78</v>
@@ -25925,7 +25937,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ118">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR118">
         <v>1.6</v>
@@ -26256,7 +26268,7 @@
         <v>184</v>
       </c>
       <c r="P120" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26668,7 +26680,7 @@
         <v>186</v>
       </c>
       <c r="P122" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q122">
         <v>4.5</v>
@@ -26874,7 +26886,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27080,7 +27092,7 @@
         <v>187</v>
       </c>
       <c r="P124" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27492,7 +27504,7 @@
         <v>96</v>
       </c>
       <c r="P126" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q126">
         <v>2.75</v>
@@ -27982,7 +27994,7 @@
         <v>0.33</v>
       </c>
       <c r="AP128">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ128">
         <v>0.6899999999999999</v>
@@ -28110,7 +28122,7 @@
         <v>191</v>
       </c>
       <c r="P129" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28316,7 +28328,7 @@
         <v>192</v>
       </c>
       <c r="P130" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q130">
         <v>2.38</v>
@@ -28394,7 +28406,7 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ130">
         <v>0.9399999999999999</v>
@@ -28522,7 +28534,7 @@
         <v>96</v>
       </c>
       <c r="P131" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28728,7 +28740,7 @@
         <v>96</v>
       </c>
       <c r="P132" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28806,10 +28818,10 @@
         <v>1.67</v>
       </c>
       <c r="AP132">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR132">
         <v>1.4</v>
@@ -29015,7 +29027,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ133">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR133">
         <v>1.83</v>
@@ -29140,7 +29152,7 @@
         <v>194</v>
       </c>
       <c r="P134" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q134">
         <v>2.25</v>
@@ -29221,7 +29233,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR134">
         <v>1.83</v>
@@ -29552,7 +29564,7 @@
         <v>196</v>
       </c>
       <c r="P136" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29630,10 +29642,10 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ136">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29758,7 +29770,7 @@
         <v>197</v>
       </c>
       <c r="P137" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q137">
         <v>2.65</v>
@@ -29964,7 +29976,7 @@
         <v>161</v>
       </c>
       <c r="P138" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -30170,7 +30182,7 @@
         <v>198</v>
       </c>
       <c r="P139" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q139">
         <v>2.05</v>
@@ -30376,7 +30388,7 @@
         <v>199</v>
       </c>
       <c r="P140" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -30788,7 +30800,7 @@
         <v>201</v>
       </c>
       <c r="P142" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31200,7 +31212,7 @@
         <v>96</v>
       </c>
       <c r="P144" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q144">
         <v>3.4</v>
@@ -31612,7 +31624,7 @@
         <v>202</v>
       </c>
       <c r="P146" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31690,7 +31702,7 @@
         <v>1.14</v>
       </c>
       <c r="AP146">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ146">
         <v>0.9399999999999999</v>
@@ -31899,7 +31911,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ147">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR147">
         <v>1.7</v>
@@ -32024,7 +32036,7 @@
         <v>204</v>
       </c>
       <c r="P148" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q148">
         <v>2.9</v>
@@ -32105,7 +32117,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ148">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR148">
         <v>1.78</v>
@@ -32308,7 +32320,7 @@
         <v>0.29</v>
       </c>
       <c r="AP149">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ149">
         <v>0.6899999999999999</v>
@@ -32436,7 +32448,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32514,7 +32526,7 @@
         <v>0.88</v>
       </c>
       <c r="AP150">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ150">
         <v>1.29</v>
@@ -32720,7 +32732,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ151">
         <v>1.19</v>
@@ -32929,7 +32941,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ152">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR152">
         <v>1.54</v>
@@ -33054,7 +33066,7 @@
         <v>172</v>
       </c>
       <c r="P153" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q153">
         <v>1.8</v>
@@ -33260,7 +33272,7 @@
         <v>207</v>
       </c>
       <c r="P154" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q154">
         <v>2.63</v>
@@ -33341,7 +33353,7 @@
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR154">
         <v>1.87</v>
@@ -33466,7 +33478,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q155">
         <v>2.05</v>
@@ -33672,7 +33684,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33750,7 +33762,7 @@
         <v>0.38</v>
       </c>
       <c r="AP156">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ156">
         <v>0.8100000000000001</v>
@@ -33959,7 +33971,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ157">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR157">
         <v>1.86</v>
@@ -34162,10 +34174,10 @@
         <v>0.88</v>
       </c>
       <c r="AP158">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ158">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR158">
         <v>1.27</v>
@@ -34290,7 +34302,7 @@
         <v>212</v>
       </c>
       <c r="P159" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34496,7 +34508,7 @@
         <v>96</v>
       </c>
       <c r="P160" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -34574,7 +34586,7 @@
         <v>1.11</v>
       </c>
       <c r="AP160">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ160">
         <v>1.29</v>
@@ -34702,7 +34714,7 @@
         <v>213</v>
       </c>
       <c r="P161" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34780,10 +34792,10 @@
         <v>2</v>
       </c>
       <c r="AP161">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ161">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR161">
         <v>1.47</v>
@@ -36019,7 +36031,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ167">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR167">
         <v>1.39</v>
@@ -36350,7 +36362,7 @@
         <v>141</v>
       </c>
       <c r="P169" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q169">
         <v>3.53</v>
@@ -36762,7 +36774,7 @@
         <v>218</v>
       </c>
       <c r="P171" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37174,7 +37186,7 @@
         <v>119</v>
       </c>
       <c r="P173" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q173">
         <v>2.7</v>
@@ -37380,7 +37392,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q174">
         <v>2.15</v>
@@ -37586,7 +37598,7 @@
         <v>221</v>
       </c>
       <c r="P175" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q175">
         <v>2.42</v>
@@ -37664,7 +37676,7 @@
         <v>0.33</v>
       </c>
       <c r="AP175">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ175">
         <v>0.6899999999999999</v>
@@ -37870,7 +37882,7 @@
         <v>0.67</v>
       </c>
       <c r="AP176">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ176">
         <v>0.8100000000000001</v>
@@ -37998,7 +38010,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q177">
         <v>2.33</v>
@@ -38204,7 +38216,7 @@
         <v>92</v>
       </c>
       <c r="P178" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q178">
         <v>3.38</v>
@@ -38282,7 +38294,7 @@
         <v>1.3</v>
       </c>
       <c r="AP178">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ178">
         <v>1.29</v>
@@ -38410,7 +38422,7 @@
         <v>224</v>
       </c>
       <c r="P179" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38491,7 +38503,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ179">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR179">
         <v>1.87</v>
@@ -38697,7 +38709,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ180">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR180">
         <v>1.87</v>
@@ -38822,7 +38834,7 @@
         <v>226</v>
       </c>
       <c r="P181" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q181">
         <v>2.63</v>
@@ -38903,7 +38915,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ181">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR181">
         <v>1.34</v>
@@ -39234,7 +39246,7 @@
         <v>227</v>
       </c>
       <c r="P183" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q183">
         <v>2.25</v>
@@ -39521,7 +39533,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ184">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR184">
         <v>1.72</v>
@@ -40058,7 +40070,7 @@
         <v>231</v>
       </c>
       <c r="P187" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q187">
         <v>2.88</v>
@@ -40342,7 +40354,7 @@
         <v>0.7</v>
       </c>
       <c r="AP188">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ188">
         <v>0.75</v>
@@ -40470,7 +40482,7 @@
         <v>97</v>
       </c>
       <c r="P189" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q189">
         <v>2.5</v>
@@ -40757,7 +40769,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ190">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR190">
         <v>1.44</v>
@@ -40882,7 +40894,7 @@
         <v>232</v>
       </c>
       <c r="P191" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q191">
         <v>2.65</v>
@@ -41088,7 +41100,7 @@
         <v>233</v>
       </c>
       <c r="P192" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q192">
         <v>2.76</v>
@@ -41166,7 +41178,7 @@
         <v>0.9</v>
       </c>
       <c r="AP192">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ192">
         <v>0.88</v>
@@ -41294,7 +41306,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q193">
         <v>2.68</v>
@@ -41578,7 +41590,7 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ194">
         <v>0.9399999999999999</v>
@@ -41706,7 +41718,7 @@
         <v>234</v>
       </c>
       <c r="P195" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -41912,7 +41924,7 @@
         <v>235</v>
       </c>
       <c r="P196" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -41993,7 +42005,7 @@
         <v>2</v>
       </c>
       <c r="AQ196">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR196">
         <v>1.77</v>
@@ -42324,7 +42336,7 @@
         <v>237</v>
       </c>
       <c r="P198" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -42402,10 +42414,10 @@
         <v>0.5</v>
       </c>
       <c r="AP198">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ198">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR198">
         <v>1.29</v>
@@ -42736,7 +42748,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q200">
         <v>3.27</v>
@@ -42942,7 +42954,7 @@
         <v>240</v>
       </c>
       <c r="P201" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q201">
         <v>3.6</v>
@@ -43020,7 +43032,7 @@
         <v>1.9</v>
       </c>
       <c r="AP201">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ201">
         <v>1.75</v>
@@ -43354,7 +43366,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -44053,7 +44065,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ206">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR206">
         <v>1.72</v>
@@ -44259,7 +44271,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ207">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR207">
         <v>1.98</v>
@@ -44384,7 +44396,7 @@
         <v>245</v>
       </c>
       <c r="P208" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q208">
         <v>2.25</v>
@@ -44668,7 +44680,7 @@
         <v>2</v>
       </c>
       <c r="AP209">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ209">
         <v>1.75</v>
@@ -44796,7 +44808,7 @@
         <v>247</v>
       </c>
       <c r="P210" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q210">
         <v>3.06</v>
@@ -44874,7 +44886,7 @@
         <v>2.09</v>
       </c>
       <c r="AP210">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ210">
         <v>2.25</v>
@@ -45002,7 +45014,7 @@
         <v>248</v>
       </c>
       <c r="P211" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q211">
         <v>3.07</v>
@@ -45083,7 +45095,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ211">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR211">
         <v>1.77</v>
@@ -45286,7 +45298,7 @@
         <v>0.55</v>
       </c>
       <c r="AP212">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ212">
         <v>0.8100000000000001</v>
@@ -45414,7 +45426,7 @@
         <v>96</v>
       </c>
       <c r="P213" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q213">
         <v>3.85</v>
@@ -45495,7 +45507,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ213">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR213">
         <v>1.38</v>
@@ -45826,7 +45838,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q215">
         <v>2.4</v>
@@ -46238,7 +46250,7 @@
         <v>251</v>
       </c>
       <c r="P217" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q217">
         <v>1.83</v>
@@ -46731,7 +46743,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ219">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR219">
         <v>1.48</v>
@@ -46856,7 +46868,7 @@
         <v>253</v>
       </c>
       <c r="P220" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46934,7 +46946,7 @@
         <v>1.67</v>
       </c>
       <c r="AP220">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ220">
         <v>1.5</v>
@@ -47140,7 +47152,7 @@
         <v>1.09</v>
       </c>
       <c r="AP221">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ221">
         <v>1.25</v>
@@ -47268,7 +47280,7 @@
         <v>152</v>
       </c>
       <c r="P222" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q222">
         <v>3.3</v>
@@ -47886,7 +47898,7 @@
         <v>255</v>
       </c>
       <c r="P225" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q225">
         <v>2.38</v>
@@ -48092,7 +48104,7 @@
         <v>222</v>
       </c>
       <c r="P226" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q226">
         <v>2.4</v>
@@ -48173,7 +48185,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ226">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR226">
         <v>1.72</v>
@@ -48298,7 +48310,7 @@
         <v>222</v>
       </c>
       <c r="P227" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q227">
         <v>2.35</v>
@@ -48504,7 +48516,7 @@
         <v>96</v>
       </c>
       <c r="P228" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q228">
         <v>3.9</v>
@@ -48585,7 +48597,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ228">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR228">
         <v>1.49</v>
@@ -48710,7 +48722,7 @@
         <v>96</v>
       </c>
       <c r="P229" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q229">
         <v>3.1</v>
@@ -48916,7 +48928,7 @@
         <v>96</v>
       </c>
       <c r="P230" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -48994,7 +49006,7 @@
         <v>1.83</v>
       </c>
       <c r="AP230">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ230">
         <v>1.75</v>
@@ -49409,7 +49421,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ232">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR232">
         <v>1.82</v>
@@ -49740,7 +49752,7 @@
         <v>259</v>
       </c>
       <c r="P234" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49818,7 +49830,7 @@
         <v>0.58</v>
       </c>
       <c r="AP234">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ234">
         <v>0.75</v>
@@ -50230,10 +50242,10 @@
         <v>0.85</v>
       </c>
       <c r="AP236">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ236">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR236">
         <v>1.79</v>
@@ -50358,7 +50370,7 @@
         <v>262</v>
       </c>
       <c r="P237" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q237">
         <v>3.25</v>
@@ -50439,7 +50451,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ237">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR237">
         <v>1.52</v>
@@ -50645,7 +50657,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ238">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR238">
         <v>1.45</v>
@@ -50770,7 +50782,7 @@
         <v>264</v>
       </c>
       <c r="P239" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q239">
         <v>2.3</v>
@@ -50848,7 +50860,7 @@
         <v>1.31</v>
       </c>
       <c r="AP239">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ239">
         <v>1.13</v>
@@ -51054,7 +51066,7 @@
         <v>1</v>
       </c>
       <c r="AP240">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ240">
         <v>1.25</v>
@@ -51388,7 +51400,7 @@
         <v>96</v>
       </c>
       <c r="P242" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51800,7 +51812,7 @@
         <v>96</v>
       </c>
       <c r="P244" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q244">
         <v>2.6</v>
@@ -52006,7 +52018,7 @@
         <v>267</v>
       </c>
       <c r="P245" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q245">
         <v>2.6</v>
@@ -52499,7 +52511,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ247">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR247">
         <v>1.92</v>
@@ -52830,7 +52842,7 @@
         <v>96</v>
       </c>
       <c r="P249" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -52908,7 +52920,7 @@
         <v>2.08</v>
       </c>
       <c r="AP249">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ249">
         <v>2.25</v>
@@ -53036,7 +53048,7 @@
         <v>270</v>
       </c>
       <c r="P250" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -53654,7 +53666,7 @@
         <v>151</v>
       </c>
       <c r="P253" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q253">
         <v>2.45</v>
@@ -53938,10 +53950,10 @@
         <v>0.79</v>
       </c>
       <c r="AP254">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ254">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR254">
         <v>1.49</v>
@@ -54147,7 +54159,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ255">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR255">
         <v>1.6</v>
@@ -54272,7 +54284,7 @@
         <v>96</v>
       </c>
       <c r="P256" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54353,7 +54365,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ256">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR256">
         <v>1.18</v>
@@ -54762,7 +54774,7 @@
         <v>0.71</v>
       </c>
       <c r="AP258">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ258">
         <v>0.6899999999999999</v>
@@ -54968,7 +54980,7 @@
         <v>1.29</v>
       </c>
       <c r="AP259">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ259">
         <v>1.13</v>
@@ -55096,7 +55108,7 @@
         <v>278</v>
       </c>
       <c r="P260" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55177,7 +55189,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ260">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR260">
         <v>1.84</v>
@@ -55302,7 +55314,7 @@
         <v>279</v>
       </c>
       <c r="P261" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q261">
         <v>3.5</v>
@@ -55792,7 +55804,7 @@
         <v>1.5</v>
       </c>
       <c r="AP263">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ263">
         <v>1.5</v>
@@ -56126,7 +56138,7 @@
         <v>239</v>
       </c>
       <c r="P265" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q265">
         <v>2.35</v>
@@ -56538,7 +56550,7 @@
         <v>96</v>
       </c>
       <c r="P267" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q267">
         <v>3.54</v>
@@ -56950,7 +56962,7 @@
         <v>281</v>
       </c>
       <c r="P269" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q269">
         <v>2.45</v>
@@ -57156,7 +57168,7 @@
         <v>128</v>
       </c>
       <c r="P270" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q270">
         <v>3.4</v>
@@ -57362,7 +57374,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57568,7 +57580,7 @@
         <v>282</v>
       </c>
       <c r="P272" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q272">
         <v>3.05</v>
@@ -57646,7 +57658,7 @@
         <v>1.2</v>
       </c>
       <c r="AP272">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ272">
         <v>1.19</v>
@@ -57855,7 +57867,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ273">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR273">
         <v>1.85</v>
@@ -58061,7 +58073,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ274">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR274">
         <v>1.7</v>
@@ -58186,7 +58198,7 @@
         <v>285</v>
       </c>
       <c r="P275" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q275">
         <v>2.2</v>
@@ -58264,10 +58276,10 @@
         <v>0.67</v>
       </c>
       <c r="AP275">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ275">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR275">
         <v>1.75</v>
@@ -58392,7 +58404,7 @@
         <v>96</v>
       </c>
       <c r="P276" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q276">
         <v>3.55</v>
@@ -58598,7 +58610,7 @@
         <v>99</v>
       </c>
       <c r="P277" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q277">
         <v>3.28</v>
@@ -58676,10 +58688,10 @@
         <v>1.87</v>
       </c>
       <c r="AP277">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ277">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AR277">
         <v>1.65</v>
@@ -59010,7 +59022,7 @@
         <v>96</v>
       </c>
       <c r="P279" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q279">
         <v>3.68</v>
@@ -59088,7 +59100,7 @@
         <v>1</v>
       </c>
       <c r="AP279">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ279">
         <v>1.25</v>
@@ -59216,7 +59228,7 @@
         <v>287</v>
       </c>
       <c r="P280" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q280">
         <v>2.95</v>
@@ -59834,7 +59846,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q283">
         <v>3</v>
@@ -60040,7 +60052,7 @@
         <v>152</v>
       </c>
       <c r="P284" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q284">
         <v>3.3</v>
@@ -60452,7 +60464,7 @@
         <v>291</v>
       </c>
       <c r="P286" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q286">
         <v>2.5</v>
@@ -60658,7 +60670,7 @@
         <v>292</v>
       </c>
       <c r="P287" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q287">
         <v>3.02</v>
@@ -61070,7 +61082,7 @@
         <v>96</v>
       </c>
       <c r="P289" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q289">
         <v>3.6</v>
@@ -61639,6 +61651,830 @@
       </c>
       <c r="BP291">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>6684240</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45423.33333333334</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>84</v>
+      </c>
+      <c r="H292" t="s">
+        <v>77</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>3</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>3</v>
+      </c>
+      <c r="O292" t="s">
+        <v>294</v>
+      </c>
+      <c r="P292" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q292">
+        <v>2.25</v>
+      </c>
+      <c r="R292">
+        <v>2.35</v>
+      </c>
+      <c r="S292">
+        <v>4.1</v>
+      </c>
+      <c r="T292">
+        <v>1.28</v>
+      </c>
+      <c r="U292">
+        <v>3.3</v>
+      </c>
+      <c r="V292">
+        <v>2.3</v>
+      </c>
+      <c r="W292">
+        <v>1.55</v>
+      </c>
+      <c r="X292">
+        <v>5</v>
+      </c>
+      <c r="Y292">
+        <v>1.14</v>
+      </c>
+      <c r="Z292">
+        <v>1.85</v>
+      </c>
+      <c r="AA292">
+        <v>3.9</v>
+      </c>
+      <c r="AB292">
+        <v>3.6</v>
+      </c>
+      <c r="AC292">
+        <v>1.03</v>
+      </c>
+      <c r="AD292">
+        <v>18</v>
+      </c>
+      <c r="AE292">
+        <v>1.19</v>
+      </c>
+      <c r="AF292">
+        <v>4.82</v>
+      </c>
+      <c r="AG292">
+        <v>1.55</v>
+      </c>
+      <c r="AH292">
+        <v>2.3</v>
+      </c>
+      <c r="AI292">
+        <v>1.59</v>
+      </c>
+      <c r="AJ292">
+        <v>2.32</v>
+      </c>
+      <c r="AK292">
+        <v>1.25</v>
+      </c>
+      <c r="AL292">
+        <v>1.25</v>
+      </c>
+      <c r="AM292">
+        <v>1.95</v>
+      </c>
+      <c r="AN292">
+        <v>1.75</v>
+      </c>
+      <c r="AO292">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP292">
+        <v>1.82</v>
+      </c>
+      <c r="AQ292">
+        <v>0.65</v>
+      </c>
+      <c r="AR292">
+        <v>1.63</v>
+      </c>
+      <c r="AS292">
+        <v>1.09</v>
+      </c>
+      <c r="AT292">
+        <v>2.72</v>
+      </c>
+      <c r="AU292">
+        <v>7</v>
+      </c>
+      <c r="AV292">
+        <v>4</v>
+      </c>
+      <c r="AW292">
+        <v>3</v>
+      </c>
+      <c r="AX292">
+        <v>5</v>
+      </c>
+      <c r="AY292">
+        <v>10</v>
+      </c>
+      <c r="AZ292">
+        <v>9</v>
+      </c>
+      <c r="BA292">
+        <v>5</v>
+      </c>
+      <c r="BB292">
+        <v>4</v>
+      </c>
+      <c r="BC292">
+        <v>9</v>
+      </c>
+      <c r="BD292">
+        <v>1.46</v>
+      </c>
+      <c r="BE292">
+        <v>10.25</v>
+      </c>
+      <c r="BF292">
+        <v>3.22</v>
+      </c>
+      <c r="BG292">
+        <v>1.12</v>
+      </c>
+      <c r="BH292">
+        <v>5</v>
+      </c>
+      <c r="BI292">
+        <v>1.26</v>
+      </c>
+      <c r="BJ292">
+        <v>3.34</v>
+      </c>
+      <c r="BK292">
+        <v>1.53</v>
+      </c>
+      <c r="BL292">
+        <v>2.47</v>
+      </c>
+      <c r="BM292">
+        <v>1.85</v>
+      </c>
+      <c r="BN292">
+        <v>1.94</v>
+      </c>
+      <c r="BO292">
+        <v>2.31</v>
+      </c>
+      <c r="BP292">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>6684247</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45423.33333333334</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>87</v>
+      </c>
+      <c r="H293" t="s">
+        <v>83</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>3</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>3</v>
+      </c>
+      <c r="O293" t="s">
+        <v>295</v>
+      </c>
+      <c r="P293" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q293">
+        <v>2.95</v>
+      </c>
+      <c r="R293">
+        <v>2.4</v>
+      </c>
+      <c r="S293">
+        <v>2.85</v>
+      </c>
+      <c r="T293">
+        <v>1.25</v>
+      </c>
+      <c r="U293">
+        <v>3.6</v>
+      </c>
+      <c r="V293">
+        <v>2</v>
+      </c>
+      <c r="W293">
+        <v>1.7</v>
+      </c>
+      <c r="X293">
+        <v>4.4</v>
+      </c>
+      <c r="Y293">
+        <v>1.16</v>
+      </c>
+      <c r="Z293">
+        <v>2.55</v>
+      </c>
+      <c r="AA293">
+        <v>3.75</v>
+      </c>
+      <c r="AB293">
+        <v>2.4</v>
+      </c>
+      <c r="AC293">
+        <v>1.01</v>
+      </c>
+      <c r="AD293">
+        <v>11</v>
+      </c>
+      <c r="AE293">
+        <v>1.11</v>
+      </c>
+      <c r="AF293">
+        <v>5.7</v>
+      </c>
+      <c r="AG293">
+        <v>1.42</v>
+      </c>
+      <c r="AH293">
+        <v>2.74</v>
+      </c>
+      <c r="AI293">
+        <v>1.37</v>
+      </c>
+      <c r="AJ293">
+        <v>2.8</v>
+      </c>
+      <c r="AK293">
+        <v>1.5</v>
+      </c>
+      <c r="AL293">
+        <v>1.25</v>
+      </c>
+      <c r="AM293">
+        <v>1.48</v>
+      </c>
+      <c r="AN293">
+        <v>1.19</v>
+      </c>
+      <c r="AO293">
+        <v>1.31</v>
+      </c>
+      <c r="AP293">
+        <v>1.29</v>
+      </c>
+      <c r="AQ293">
+        <v>1.24</v>
+      </c>
+      <c r="AR293">
+        <v>1.18</v>
+      </c>
+      <c r="AS293">
+        <v>1.48</v>
+      </c>
+      <c r="AT293">
+        <v>2.66</v>
+      </c>
+      <c r="AU293">
+        <v>7</v>
+      </c>
+      <c r="AV293">
+        <v>2</v>
+      </c>
+      <c r="AW293">
+        <v>7</v>
+      </c>
+      <c r="AX293">
+        <v>3</v>
+      </c>
+      <c r="AY293">
+        <v>14</v>
+      </c>
+      <c r="AZ293">
+        <v>5</v>
+      </c>
+      <c r="BA293">
+        <v>4</v>
+      </c>
+      <c r="BB293">
+        <v>4</v>
+      </c>
+      <c r="BC293">
+        <v>8</v>
+      </c>
+      <c r="BD293">
+        <v>1.95</v>
+      </c>
+      <c r="BE293">
+        <v>8</v>
+      </c>
+      <c r="BF293">
+        <v>2.1</v>
+      </c>
+      <c r="BG293">
+        <v>1.18</v>
+      </c>
+      <c r="BH293">
+        <v>4.2</v>
+      </c>
+      <c r="BI293">
+        <v>1.35</v>
+      </c>
+      <c r="BJ293">
+        <v>2.88</v>
+      </c>
+      <c r="BK293">
+        <v>1.61</v>
+      </c>
+      <c r="BL293">
+        <v>2.14</v>
+      </c>
+      <c r="BM293">
+        <v>2</v>
+      </c>
+      <c r="BN293">
+        <v>1.74</v>
+      </c>
+      <c r="BO293">
+        <v>2.63</v>
+      </c>
+      <c r="BP293">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>6684241</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45423.33333333334</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>80</v>
+      </c>
+      <c r="H294" t="s">
+        <v>71</v>
+      </c>
+      <c r="I294">
+        <v>2</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>3</v>
+      </c>
+      <c r="L294">
+        <v>3</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>4</v>
+      </c>
+      <c r="O294" t="s">
+        <v>296</v>
+      </c>
+      <c r="P294" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q294">
+        <v>2.85</v>
+      </c>
+      <c r="R294">
+        <v>2.55</v>
+      </c>
+      <c r="S294">
+        <v>2.75</v>
+      </c>
+      <c r="T294">
+        <v>1.22</v>
+      </c>
+      <c r="U294">
+        <v>3.8</v>
+      </c>
+      <c r="V294">
+        <v>1.97</v>
+      </c>
+      <c r="W294">
+        <v>1.72</v>
+      </c>
+      <c r="X294">
+        <v>4</v>
+      </c>
+      <c r="Y294">
+        <v>1.2</v>
+      </c>
+      <c r="Z294">
+        <v>2.4</v>
+      </c>
+      <c r="AA294">
+        <v>4</v>
+      </c>
+      <c r="AB294">
+        <v>2.45</v>
+      </c>
+      <c r="AC294">
+        <v>1.01</v>
+      </c>
+      <c r="AD294">
+        <v>11</v>
+      </c>
+      <c r="AE294">
+        <v>1.1</v>
+      </c>
+      <c r="AF294">
+        <v>6</v>
+      </c>
+      <c r="AG294">
+        <v>1.39</v>
+      </c>
+      <c r="AH294">
+        <v>2.86</v>
+      </c>
+      <c r="AI294">
+        <v>1.33</v>
+      </c>
+      <c r="AJ294">
+        <v>3</v>
+      </c>
+      <c r="AK294">
+        <v>1.48</v>
+      </c>
+      <c r="AL294">
+        <v>1.22</v>
+      </c>
+      <c r="AM294">
+        <v>1.53</v>
+      </c>
+      <c r="AN294">
+        <v>1.69</v>
+      </c>
+      <c r="AO294">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP294">
+        <v>1.76</v>
+      </c>
+      <c r="AQ294">
+        <v>0.76</v>
+      </c>
+      <c r="AR294">
+        <v>1.46</v>
+      </c>
+      <c r="AS294">
+        <v>1.6</v>
+      </c>
+      <c r="AT294">
+        <v>3.06</v>
+      </c>
+      <c r="AU294">
+        <v>5</v>
+      </c>
+      <c r="AV294">
+        <v>3</v>
+      </c>
+      <c r="AW294">
+        <v>9</v>
+      </c>
+      <c r="AX294">
+        <v>6</v>
+      </c>
+      <c r="AY294">
+        <v>14</v>
+      </c>
+      <c r="AZ294">
+        <v>9</v>
+      </c>
+      <c r="BA294">
+        <v>2</v>
+      </c>
+      <c r="BB294">
+        <v>6</v>
+      </c>
+      <c r="BC294">
+        <v>8</v>
+      </c>
+      <c r="BD294">
+        <v>2.1</v>
+      </c>
+      <c r="BE294">
+        <v>8</v>
+      </c>
+      <c r="BF294">
+        <v>1.91</v>
+      </c>
+      <c r="BG294">
+        <v>1.19</v>
+      </c>
+      <c r="BH294">
+        <v>4</v>
+      </c>
+      <c r="BI294">
+        <v>1.37</v>
+      </c>
+      <c r="BJ294">
+        <v>2.8</v>
+      </c>
+      <c r="BK294">
+        <v>1.72</v>
+      </c>
+      <c r="BL294">
+        <v>2.02</v>
+      </c>
+      <c r="BM294">
+        <v>2.06</v>
+      </c>
+      <c r="BN294">
+        <v>1.66</v>
+      </c>
+      <c r="BO294">
+        <v>2.7</v>
+      </c>
+      <c r="BP294">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>6684245</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45423.64583333334</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>82</v>
+      </c>
+      <c r="H295" t="s">
+        <v>75</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="N295">
+        <v>2</v>
+      </c>
+      <c r="O295" t="s">
+        <v>297</v>
+      </c>
+      <c r="P295" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q295">
+        <v>2.85</v>
+      </c>
+      <c r="R295">
+        <v>2.35</v>
+      </c>
+      <c r="S295">
+        <v>3</v>
+      </c>
+      <c r="T295">
+        <v>1.25</v>
+      </c>
+      <c r="U295">
+        <v>3.6</v>
+      </c>
+      <c r="V295">
+        <v>2.15</v>
+      </c>
+      <c r="W295">
+        <v>1.62</v>
+      </c>
+      <c r="X295">
+        <v>4.3</v>
+      </c>
+      <c r="Y295">
+        <v>1.17</v>
+      </c>
+      <c r="Z295">
+        <v>2.38</v>
+      </c>
+      <c r="AA295">
+        <v>3.5</v>
+      </c>
+      <c r="AB295">
+        <v>2.47</v>
+      </c>
+      <c r="AC295">
+        <v>1.01</v>
+      </c>
+      <c r="AD295">
+        <v>11</v>
+      </c>
+      <c r="AE295">
+        <v>1.11</v>
+      </c>
+      <c r="AF295">
+        <v>5.7</v>
+      </c>
+      <c r="AG295">
+        <v>1.41</v>
+      </c>
+      <c r="AH295">
+        <v>2.49</v>
+      </c>
+      <c r="AI295">
+        <v>1.37</v>
+      </c>
+      <c r="AJ295">
+        <v>2.8</v>
+      </c>
+      <c r="AK295">
+        <v>1.4</v>
+      </c>
+      <c r="AL295">
+        <v>1.3</v>
+      </c>
+      <c r="AM295">
+        <v>1.55</v>
+      </c>
+      <c r="AN295">
+        <v>1.75</v>
+      </c>
+      <c r="AO295">
+        <v>1.81</v>
+      </c>
+      <c r="AP295">
+        <v>1.71</v>
+      </c>
+      <c r="AQ295">
+        <v>1.76</v>
+      </c>
+      <c r="AR295">
+        <v>1.76</v>
+      </c>
+      <c r="AS295">
+        <v>1.4</v>
+      </c>
+      <c r="AT295">
+        <v>3.16</v>
+      </c>
+      <c r="AU295">
+        <v>3</v>
+      </c>
+      <c r="AV295">
+        <v>6</v>
+      </c>
+      <c r="AW295">
+        <v>3</v>
+      </c>
+      <c r="AX295">
+        <v>10</v>
+      </c>
+      <c r="AY295">
+        <v>6</v>
+      </c>
+      <c r="AZ295">
+        <v>16</v>
+      </c>
+      <c r="BA295">
+        <v>2</v>
+      </c>
+      <c r="BB295">
+        <v>13</v>
+      </c>
+      <c r="BC295">
+        <v>15</v>
+      </c>
+      <c r="BD295">
+        <v>1.75</v>
+      </c>
+      <c r="BE295">
+        <v>8.5</v>
+      </c>
+      <c r="BF295">
+        <v>2.41</v>
+      </c>
+      <c r="BG295">
+        <v>1.18</v>
+      </c>
+      <c r="BH295">
+        <v>4.2</v>
+      </c>
+      <c r="BI295">
+        <v>1.35</v>
+      </c>
+      <c r="BJ295">
+        <v>2.88</v>
+      </c>
+      <c r="BK295">
+        <v>1.61</v>
+      </c>
+      <c r="BL295">
+        <v>2.14</v>
+      </c>
+      <c r="BM295">
+        <v>2</v>
+      </c>
+      <c r="BN295">
+        <v>1.74</v>
+      </c>
+      <c r="BO295">
+        <v>2.63</v>
+      </c>
+      <c r="BP295">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
@@ -61793,22 +61793,22 @@
         <v>2.72</v>
       </c>
       <c r="AU292">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV292">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX292">
         <v>5</v>
       </c>
       <c r="AY292">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ292">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA292">
         <v>5</v>
@@ -61999,19 +61999,19 @@
         <v>2.66</v>
       </c>
       <c r="AU293">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV293">
         <v>2</v>
       </c>
       <c r="AW293">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX293">
         <v>3</v>
       </c>
       <c r="AY293">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ293">
         <v>5</v>
@@ -62205,22 +62205,22 @@
         <v>3.06</v>
       </c>
       <c r="AU294">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV294">
         <v>3</v>
       </c>
       <c r="AW294">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX294">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY294">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ294">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA294">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="444">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -910,6 +910,12 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['7', '58', '68']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
     <t>['22', '45+1', '66']</t>
   </si>
   <si>
@@ -1052,9 +1058,6 @@
   </si>
   <si>
     <t>['52', '90']</t>
-  </si>
-  <si>
-    <t>['43']</t>
   </si>
   <si>
     <t>['10', '65', '73']</t>
@@ -1340,6 +1343,9 @@
   </si>
   <si>
     <t>['2', '5', '65', '75']</t>
+  </si>
+  <si>
+    <t>['19', '65']</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP295"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1960,7 +1966,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2166,7 +2172,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2372,7 +2378,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2578,7 +2584,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2784,7 +2790,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -3608,7 +3614,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3686,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ10">
         <v>2.25</v>
@@ -3895,7 +3901,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ11">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4020,7 +4026,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -4101,7 +4107,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ12">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4304,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ13">
         <v>1.76</v>
@@ -4432,7 +4438,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q14">
         <v>2.85</v>
@@ -4638,7 +4644,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q15">
         <v>2.7</v>
@@ -5050,7 +5056,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -5128,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ17">
         <v>1.29</v>
@@ -5256,7 +5262,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -5462,7 +5468,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q19">
         <v>2.7</v>
@@ -5543,7 +5549,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5874,7 +5880,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -6080,7 +6086,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -6161,7 +6167,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -6492,7 +6498,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6982,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ26">
         <v>0.75</v>
@@ -7110,7 +7116,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -7316,7 +7322,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7522,7 +7528,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7728,7 +7734,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -8221,7 +8227,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ32">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR32">
         <v>1.45</v>
@@ -8346,7 +8352,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8836,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ35">
         <v>0.8100000000000001</v>
@@ -9042,7 +9048,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ36">
         <v>0.88</v>
@@ -9251,7 +9257,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ37">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR37">
         <v>1.19</v>
@@ -9660,7 +9666,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -9788,7 +9794,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9994,7 +10000,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10406,7 +10412,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q43">
         <v>2.7</v>
@@ -10612,7 +10618,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10693,7 +10699,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ44">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
         <v>1.68</v>
@@ -11311,7 +11317,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ47">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR47">
         <v>1.67</v>
@@ -11436,7 +11442,7 @@
         <v>126</v>
       </c>
       <c r="P48" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11642,7 +11648,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11720,7 +11726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ49">
         <v>0.76</v>
@@ -11848,7 +11854,7 @@
         <v>128</v>
       </c>
       <c r="P50" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12260,7 +12266,7 @@
         <v>130</v>
       </c>
       <c r="P52" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12750,7 +12756,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ54">
         <v>2.25</v>
@@ -12959,7 +12965,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ55">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR55">
         <v>1.5</v>
@@ -13290,7 +13296,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q57">
         <v>2.51</v>
@@ -13496,7 +13502,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q58">
         <v>2.78</v>
@@ -13702,7 +13708,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13780,7 +13786,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ59">
         <v>1.13</v>
@@ -13908,7 +13914,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -14114,7 +14120,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -14192,7 +14198,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ61">
         <v>0.75</v>
@@ -14320,7 +14326,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14526,7 +14532,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14813,7 +14819,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ64">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>1.71</v>
@@ -15144,7 +15150,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q66">
         <v>2.8</v>
@@ -15637,7 +15643,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
         <v>1.98</v>
@@ -15762,7 +15768,7 @@
         <v>96</v>
       </c>
       <c r="P69" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q69">
         <v>2.35</v>
@@ -15840,7 +15846,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ69">
         <v>2.25</v>
@@ -15968,7 +15974,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -16586,7 +16592,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16792,7 +16798,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q74">
         <v>2.05</v>
@@ -16873,7 +16879,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR74">
         <v>1.71</v>
@@ -16998,7 +17004,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17079,7 +17085,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>1.65</v>
@@ -17822,7 +17828,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17900,7 +17906,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ79">
         <v>1.13</v>
@@ -18234,7 +18240,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q81">
         <v>3.4</v>
@@ -18312,7 +18318,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ81">
         <v>1.5</v>
@@ -18440,7 +18446,7 @@
         <v>118</v>
       </c>
       <c r="P82" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q82">
         <v>2.75</v>
@@ -19264,7 +19270,7 @@
         <v>159</v>
       </c>
       <c r="P86" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19470,7 +19476,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19551,7 +19557,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ87">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19676,7 +19682,7 @@
         <v>160</v>
       </c>
       <c r="P88" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19882,7 +19888,7 @@
         <v>161</v>
       </c>
       <c r="P89" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -20166,7 +20172,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ90">
         <v>0.75</v>
@@ -20294,7 +20300,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20500,7 +20506,7 @@
         <v>106</v>
       </c>
       <c r="P92" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20578,7 +20584,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ92">
         <v>1.76</v>
@@ -20787,7 +20793,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ93">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR93">
         <v>1.58</v>
@@ -20912,7 +20918,7 @@
         <v>165</v>
       </c>
       <c r="P94" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20993,7 +20999,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ94">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR94">
         <v>1.82</v>
@@ -21324,7 +21330,7 @@
         <v>167</v>
       </c>
       <c r="P96" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21402,7 +21408,7 @@
         <v>0.8</v>
       </c>
       <c r="AP96">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ96">
         <v>1.25</v>
@@ -21530,7 +21536,7 @@
         <v>168</v>
       </c>
       <c r="P97" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q97">
         <v>3.4</v>
@@ -21736,7 +21742,7 @@
         <v>96</v>
       </c>
       <c r="P98" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -22148,7 +22154,7 @@
         <v>170</v>
       </c>
       <c r="P100" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22354,7 +22360,7 @@
         <v>171</v>
       </c>
       <c r="P101" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22435,7 +22441,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ101">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR101">
         <v>1.67</v>
@@ -22560,7 +22566,7 @@
         <v>96</v>
       </c>
       <c r="P102" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22766,7 +22772,7 @@
         <v>96</v>
       </c>
       <c r="P103" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22972,7 +22978,7 @@
         <v>172</v>
       </c>
       <c r="P104" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -23178,7 +23184,7 @@
         <v>99</v>
       </c>
       <c r="P105" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -23590,7 +23596,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23668,7 +23674,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ107">
         <v>1.5</v>
@@ -24208,7 +24214,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24492,10 +24498,10 @@
         <v>1.33</v>
       </c>
       <c r="AP111">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ111">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR111">
         <v>1.97</v>
@@ -24620,7 +24626,7 @@
         <v>176</v>
       </c>
       <c r="P112" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24826,7 +24832,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -25032,7 +25038,7 @@
         <v>178</v>
       </c>
       <c r="P114" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q114">
         <v>2.75</v>
@@ -25110,10 +25116,10 @@
         <v>0.4</v>
       </c>
       <c r="AP114">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ114">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR114">
         <v>1.45</v>
@@ -25238,7 +25244,7 @@
         <v>179</v>
       </c>
       <c r="P115" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q115">
         <v>2.4</v>
@@ -25650,7 +25656,7 @@
         <v>181</v>
       </c>
       <c r="P117" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -26268,7 +26274,7 @@
         <v>184</v>
       </c>
       <c r="P120" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26680,7 +26686,7 @@
         <v>186</v>
       </c>
       <c r="P122" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q122">
         <v>4.5</v>
@@ -26886,7 +26892,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27092,7 +27098,7 @@
         <v>187</v>
       </c>
       <c r="P124" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27376,7 +27382,7 @@
         <v>1.43</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ125">
         <v>1.13</v>
@@ -27504,7 +27510,7 @@
         <v>96</v>
       </c>
       <c r="P126" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q126">
         <v>2.75</v>
@@ -27791,7 +27797,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ127">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -27997,7 +28003,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ128">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR128">
         <v>1.75</v>
@@ -28122,7 +28128,7 @@
         <v>191</v>
       </c>
       <c r="P129" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28200,7 +28206,7 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ129">
         <v>1.29</v>
@@ -28328,7 +28334,7 @@
         <v>192</v>
       </c>
       <c r="P130" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q130">
         <v>2.38</v>
@@ -28409,7 +28415,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ130">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR130">
         <v>1.72</v>
@@ -28534,7 +28540,7 @@
         <v>96</v>
       </c>
       <c r="P131" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28612,7 +28618,7 @@
         <v>0.83</v>
       </c>
       <c r="AP131">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ131">
         <v>0.9399999999999999</v>
@@ -28740,7 +28746,7 @@
         <v>96</v>
       </c>
       <c r="P132" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -29152,7 +29158,7 @@
         <v>194</v>
       </c>
       <c r="P134" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q134">
         <v>2.25</v>
@@ -29230,7 +29236,7 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
         <v>0.65</v>
@@ -29439,7 +29445,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ135">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR135">
         <v>1.65</v>
@@ -29564,7 +29570,7 @@
         <v>196</v>
       </c>
       <c r="P136" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29770,7 +29776,7 @@
         <v>197</v>
       </c>
       <c r="P137" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q137">
         <v>2.65</v>
@@ -29976,7 +29982,7 @@
         <v>161</v>
       </c>
       <c r="P138" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -30182,7 +30188,7 @@
         <v>198</v>
       </c>
       <c r="P139" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q139">
         <v>2.05</v>
@@ -30388,7 +30394,7 @@
         <v>199</v>
       </c>
       <c r="P140" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -30800,7 +30806,7 @@
         <v>201</v>
       </c>
       <c r="P142" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31212,7 +31218,7 @@
         <v>96</v>
       </c>
       <c r="P144" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q144">
         <v>3.4</v>
@@ -31624,7 +31630,7 @@
         <v>202</v>
       </c>
       <c r="P146" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -32036,7 +32042,7 @@
         <v>204</v>
       </c>
       <c r="P148" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q148">
         <v>2.9</v>
@@ -32323,7 +32329,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ149">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR149">
         <v>1.47</v>
@@ -32448,7 +32454,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32735,7 +32741,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ151">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR151">
         <v>1.79</v>
@@ -32938,7 +32944,7 @@
         <v>0.71</v>
       </c>
       <c r="AP152">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ152">
         <v>0.76</v>
@@ -33066,7 +33072,7 @@
         <v>172</v>
       </c>
       <c r="P153" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q153">
         <v>1.8</v>
@@ -33144,10 +33150,10 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ153">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR153">
         <v>1.81</v>
@@ -33272,7 +33278,7 @@
         <v>207</v>
       </c>
       <c r="P154" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q154">
         <v>2.63</v>
@@ -33350,7 +33356,7 @@
         <v>1.75</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ154">
         <v>1.24</v>
@@ -33478,7 +33484,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q155">
         <v>2.05</v>
@@ -33556,10 +33562,10 @@
         <v>0.38</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ155">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR155">
         <v>1.85</v>
@@ -33684,7 +33690,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33968,7 +33974,7 @@
         <v>0.63</v>
       </c>
       <c r="AP157">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ157">
         <v>0.76</v>
@@ -34302,7 +34308,7 @@
         <v>212</v>
       </c>
       <c r="P159" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34383,7 +34389,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ159">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR159">
         <v>1.36</v>
@@ -34508,7 +34514,7 @@
         <v>96</v>
       </c>
       <c r="P160" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -34714,7 +34720,7 @@
         <v>213</v>
       </c>
       <c r="P161" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -35207,7 +35213,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ163">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR163">
         <v>1.79</v>
@@ -36362,7 +36368,7 @@
         <v>141</v>
       </c>
       <c r="P169" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q169">
         <v>3.53</v>
@@ -36646,7 +36652,7 @@
         <v>1</v>
       </c>
       <c r="AP170">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ170">
         <v>0.88</v>
@@ -36774,7 +36780,7 @@
         <v>218</v>
       </c>
       <c r="P171" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37186,7 +37192,7 @@
         <v>119</v>
       </c>
       <c r="P173" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q173">
         <v>2.7</v>
@@ -37392,7 +37398,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q174">
         <v>2.15</v>
@@ -37470,10 +37476,10 @@
         <v>1</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ174">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR174">
         <v>1.83</v>
@@ -37598,7 +37604,7 @@
         <v>221</v>
       </c>
       <c r="P175" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q175">
         <v>2.42</v>
@@ -37679,7 +37685,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ175">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR175">
         <v>1.24</v>
@@ -38010,7 +38016,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q177">
         <v>2.33</v>
@@ -38088,7 +38094,7 @@
         <v>1.33</v>
       </c>
       <c r="AP177">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ177">
         <v>0.9399999999999999</v>
@@ -38216,7 +38222,7 @@
         <v>92</v>
       </c>
       <c r="P178" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q178">
         <v>3.38</v>
@@ -38422,7 +38428,7 @@
         <v>224</v>
       </c>
       <c r="P179" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38834,7 +38840,7 @@
         <v>226</v>
       </c>
       <c r="P181" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q181">
         <v>2.63</v>
@@ -39246,7 +39252,7 @@
         <v>227</v>
       </c>
       <c r="P183" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q183">
         <v>2.25</v>
@@ -39327,7 +39333,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ183">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR183">
         <v>2.03</v>
@@ -39942,7 +39948,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ186">
         <v>1.25</v>
@@ -40070,7 +40076,7 @@
         <v>231</v>
       </c>
       <c r="P187" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q187">
         <v>2.88</v>
@@ -40482,7 +40488,7 @@
         <v>97</v>
       </c>
       <c r="P189" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q189">
         <v>2.5</v>
@@ -40894,7 +40900,7 @@
         <v>232</v>
       </c>
       <c r="P191" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q191">
         <v>2.65</v>
@@ -41100,7 +41106,7 @@
         <v>233</v>
       </c>
       <c r="P192" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q192">
         <v>2.76</v>
@@ -41306,7 +41312,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q193">
         <v>2.68</v>
@@ -41593,7 +41599,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ194">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR194">
         <v>1.73</v>
@@ -41718,7 +41724,7 @@
         <v>234</v>
       </c>
       <c r="P195" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -41924,7 +41930,7 @@
         <v>235</v>
       </c>
       <c r="P196" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -42002,7 +42008,7 @@
         <v>1.7</v>
       </c>
       <c r="AP196">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ196">
         <v>1.76</v>
@@ -42208,7 +42214,7 @@
         <v>0.6</v>
       </c>
       <c r="AP197">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ197">
         <v>0.8100000000000001</v>
@@ -42336,7 +42342,7 @@
         <v>237</v>
       </c>
       <c r="P198" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -42623,7 +42629,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ199">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR199">
         <v>1.3</v>
@@ -42748,7 +42754,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q200">
         <v>3.27</v>
@@ -42954,7 +42960,7 @@
         <v>240</v>
       </c>
       <c r="P201" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q201">
         <v>3.6</v>
@@ -43241,7 +43247,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ202">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR202">
         <v>1.51</v>
@@ -43366,7 +43372,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43650,7 +43656,7 @@
         <v>1.27</v>
       </c>
       <c r="AP204">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ204">
         <v>1.13</v>
@@ -44396,7 +44402,7 @@
         <v>245</v>
       </c>
       <c r="P208" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q208">
         <v>2.25</v>
@@ -44808,7 +44814,7 @@
         <v>247</v>
       </c>
       <c r="P210" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q210">
         <v>3.06</v>
@@ -45014,7 +45020,7 @@
         <v>248</v>
       </c>
       <c r="P211" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q211">
         <v>3.07</v>
@@ -45426,7 +45432,7 @@
         <v>96</v>
       </c>
       <c r="P213" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q213">
         <v>3.85</v>
@@ -45710,7 +45716,7 @@
         <v>1.09</v>
       </c>
       <c r="AP214">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ214">
         <v>0.9399999999999999</v>
@@ -45838,7 +45844,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q215">
         <v>2.4</v>
@@ -45919,7 +45925,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ215">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR215">
         <v>1.32</v>
@@ -46250,7 +46256,7 @@
         <v>251</v>
       </c>
       <c r="P217" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q217">
         <v>1.83</v>
@@ -46331,7 +46337,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ217">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR217">
         <v>1.98</v>
@@ -46740,7 +46746,7 @@
         <v>0.67</v>
       </c>
       <c r="AP219">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ219">
         <v>0.65</v>
@@ -46868,7 +46874,7 @@
         <v>253</v>
       </c>
       <c r="P220" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -47280,7 +47286,7 @@
         <v>152</v>
       </c>
       <c r="P222" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q222">
         <v>3.3</v>
@@ -47361,7 +47367,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ222">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR222">
         <v>1.13</v>
@@ -47770,7 +47776,7 @@
         <v>1.25</v>
       </c>
       <c r="AP224">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ224">
         <v>1.13</v>
@@ -47898,7 +47904,7 @@
         <v>255</v>
       </c>
       <c r="P225" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q225">
         <v>2.38</v>
@@ -47979,7 +47985,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ225">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR225">
         <v>1.49</v>
@@ -48104,7 +48110,7 @@
         <v>222</v>
       </c>
       <c r="P226" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q226">
         <v>2.4</v>
@@ -48310,7 +48316,7 @@
         <v>222</v>
       </c>
       <c r="P227" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q227">
         <v>2.35</v>
@@ -48516,7 +48522,7 @@
         <v>96</v>
       </c>
       <c r="P228" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q228">
         <v>3.9</v>
@@ -48722,7 +48728,7 @@
         <v>96</v>
       </c>
       <c r="P229" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q229">
         <v>3.1</v>
@@ -48928,7 +48934,7 @@
         <v>96</v>
       </c>
       <c r="P230" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49624,7 +49630,7 @@
         <v>0.83</v>
       </c>
       <c r="AP233">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ233">
         <v>0.88</v>
@@ -49752,7 +49758,7 @@
         <v>259</v>
       </c>
       <c r="P234" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -50039,7 +50045,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ235">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR235">
         <v>1.94</v>
@@ -50370,7 +50376,7 @@
         <v>262</v>
       </c>
       <c r="P237" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q237">
         <v>3.25</v>
@@ -50654,7 +50660,7 @@
         <v>1.38</v>
       </c>
       <c r="AP238">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ238">
         <v>1.24</v>
@@ -50782,7 +50788,7 @@
         <v>264</v>
       </c>
       <c r="P239" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q239">
         <v>2.3</v>
@@ -51272,7 +51278,7 @@
         <v>1.62</v>
       </c>
       <c r="AP241">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ241">
         <v>1.5</v>
@@ -51400,7 +51406,7 @@
         <v>96</v>
       </c>
       <c r="P242" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51481,7 +51487,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ242">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR242">
         <v>1.69</v>
@@ -51812,7 +51818,7 @@
         <v>96</v>
       </c>
       <c r="P244" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q244">
         <v>2.6</v>
@@ -51893,7 +51899,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ244">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR244">
         <v>1.12</v>
@@ -52018,7 +52024,7 @@
         <v>267</v>
       </c>
       <c r="P245" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q245">
         <v>2.6</v>
@@ -52305,7 +52311,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ246">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR246">
         <v>1.34</v>
@@ -52842,7 +52848,7 @@
         <v>96</v>
       </c>
       <c r="P249" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -53048,7 +53054,7 @@
         <v>270</v>
       </c>
       <c r="P250" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -53126,7 +53132,7 @@
         <v>1.92</v>
       </c>
       <c r="AP250">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ250">
         <v>1.75</v>
@@ -53666,7 +53672,7 @@
         <v>151</v>
       </c>
       <c r="P253" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q253">
         <v>2.45</v>
@@ -54284,7 +54290,7 @@
         <v>96</v>
       </c>
       <c r="P256" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54777,7 +54783,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ258">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR258">
         <v>1.74</v>
@@ -55108,7 +55114,7 @@
         <v>278</v>
       </c>
       <c r="P260" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55186,7 +55192,7 @@
         <v>1.29</v>
       </c>
       <c r="AP260">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ260">
         <v>1.24</v>
@@ -55314,7 +55320,7 @@
         <v>279</v>
       </c>
       <c r="P261" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q261">
         <v>3.5</v>
@@ -55598,10 +55604,10 @@
         <v>1.21</v>
       </c>
       <c r="AP262">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ262">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR262">
         <v>1.5</v>
@@ -56138,7 +56144,7 @@
         <v>239</v>
       </c>
       <c r="P265" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q265">
         <v>2.35</v>
@@ -56219,7 +56225,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ265">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR265">
         <v>1.5</v>
@@ -56550,7 +56556,7 @@
         <v>96</v>
       </c>
       <c r="P267" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q267">
         <v>3.54</v>
@@ -56962,7 +56968,7 @@
         <v>281</v>
       </c>
       <c r="P269" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q269">
         <v>2.45</v>
@@ -57040,7 +57046,7 @@
         <v>1.29</v>
       </c>
       <c r="AP269">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ269">
         <v>1.13</v>
@@ -57168,7 +57174,7 @@
         <v>128</v>
       </c>
       <c r="P270" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q270">
         <v>3.4</v>
@@ -57374,7 +57380,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57580,7 +57586,7 @@
         <v>282</v>
       </c>
       <c r="P272" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q272">
         <v>3.05</v>
@@ -57661,7 +57667,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ272">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR272">
         <v>1.51</v>
@@ -57864,7 +57870,7 @@
         <v>0.73</v>
       </c>
       <c r="AP273">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ273">
         <v>0.65</v>
@@ -58198,7 +58204,7 @@
         <v>285</v>
       </c>
       <c r="P275" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q275">
         <v>2.2</v>
@@ -58404,7 +58410,7 @@
         <v>96</v>
       </c>
       <c r="P276" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q276">
         <v>3.55</v>
@@ -58482,7 +58488,7 @@
         <v>1.27</v>
       </c>
       <c r="AP276">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ276">
         <v>1.29</v>
@@ -58610,7 +58616,7 @@
         <v>99</v>
       </c>
       <c r="P277" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q277">
         <v>3.28</v>
@@ -58897,7 +58903,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ278">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR278">
         <v>1.66</v>
@@ -59022,7 +59028,7 @@
         <v>96</v>
       </c>
       <c r="P279" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q279">
         <v>3.68</v>
@@ -59228,7 +59234,7 @@
         <v>287</v>
       </c>
       <c r="P280" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q280">
         <v>2.95</v>
@@ -59846,7 +59852,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q283">
         <v>3</v>
@@ -60052,7 +60058,7 @@
         <v>152</v>
       </c>
       <c r="P284" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q284">
         <v>3.3</v>
@@ -60464,7 +60470,7 @@
         <v>291</v>
       </c>
       <c r="P286" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q286">
         <v>2.5</v>
@@ -60670,7 +60676,7 @@
         <v>292</v>
       </c>
       <c r="P287" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q287">
         <v>3.02</v>
@@ -61082,7 +61088,7 @@
         <v>96</v>
       </c>
       <c r="P289" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q289">
         <v>3.6</v>
@@ -61700,7 +61706,7 @@
         <v>294</v>
       </c>
       <c r="P292" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q292">
         <v>2.25</v>
@@ -61793,22 +61799,22 @@
         <v>2.72</v>
       </c>
       <c r="AU292">
+        <v>7</v>
+      </c>
+      <c r="AV292">
         <v>4</v>
       </c>
-      <c r="AV292">
+      <c r="AW292">
         <v>3</v>
-      </c>
-      <c r="AW292">
-        <v>2</v>
       </c>
       <c r="AX292">
         <v>5</v>
       </c>
       <c r="AY292">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ292">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA292">
         <v>5</v>
@@ -61999,19 +62005,19 @@
         <v>2.66</v>
       </c>
       <c r="AU293">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV293">
         <v>2</v>
       </c>
       <c r="AW293">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX293">
         <v>3</v>
       </c>
       <c r="AY293">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ293">
         <v>5</v>
@@ -62205,22 +62211,22 @@
         <v>3.06</v>
       </c>
       <c r="AU294">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV294">
         <v>3</v>
       </c>
       <c r="AW294">
+        <v>9</v>
+      </c>
+      <c r="AX294">
         <v>6</v>
       </c>
-      <c r="AX294">
-        <v>5</v>
-      </c>
       <c r="AY294">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ294">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA294">
         <v>2</v>
@@ -62475,6 +62481,624 @@
       </c>
       <c r="BP295">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>6684242</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45424.35416666666</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>81</v>
+      </c>
+      <c r="H296" t="s">
+        <v>73</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+      <c r="L296">
+        <v>3</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="N296">
+        <v>4</v>
+      </c>
+      <c r="O296" t="s">
+        <v>298</v>
+      </c>
+      <c r="P296" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q296">
+        <v>1.6</v>
+      </c>
+      <c r="R296">
+        <v>2.85</v>
+      </c>
+      <c r="S296">
+        <v>7</v>
+      </c>
+      <c r="T296">
+        <v>1.2</v>
+      </c>
+      <c r="U296">
+        <v>3.95</v>
+      </c>
+      <c r="V296">
+        <v>2.07</v>
+      </c>
+      <c r="W296">
+        <v>1.82</v>
+      </c>
+      <c r="X296">
+        <v>4</v>
+      </c>
+      <c r="Y296">
+        <v>1.22</v>
+      </c>
+      <c r="Z296">
+        <v>1.2</v>
+      </c>
+      <c r="AA296">
+        <v>6.25</v>
+      </c>
+      <c r="AB296">
+        <v>10</v>
+      </c>
+      <c r="AC296">
+        <v>1.01</v>
+      </c>
+      <c r="AD296">
+        <v>27.5</v>
+      </c>
+      <c r="AE296">
+        <v>1.13</v>
+      </c>
+      <c r="AF296">
+        <v>6.1</v>
+      </c>
+      <c r="AG296">
+        <v>1.4</v>
+      </c>
+      <c r="AH296">
+        <v>2.75</v>
+      </c>
+      <c r="AI296">
+        <v>1.88</v>
+      </c>
+      <c r="AJ296">
+        <v>1.89</v>
+      </c>
+      <c r="AK296">
+        <v>1.04</v>
+      </c>
+      <c r="AL296">
+        <v>1.09</v>
+      </c>
+      <c r="AM296">
+        <v>4.9</v>
+      </c>
+      <c r="AN296">
+        <v>2.19</v>
+      </c>
+      <c r="AO296">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP296">
+        <v>2.24</v>
+      </c>
+      <c r="AQ296">
+        <v>0.65</v>
+      </c>
+      <c r="AR296">
+        <v>1.8</v>
+      </c>
+      <c r="AS296">
+        <v>1.08</v>
+      </c>
+      <c r="AT296">
+        <v>2.88</v>
+      </c>
+      <c r="AU296">
+        <v>8</v>
+      </c>
+      <c r="AV296">
+        <v>2</v>
+      </c>
+      <c r="AW296">
+        <v>8</v>
+      </c>
+      <c r="AX296">
+        <v>1</v>
+      </c>
+      <c r="AY296">
+        <v>16</v>
+      </c>
+      <c r="AZ296">
+        <v>3</v>
+      </c>
+      <c r="BA296">
+        <v>4</v>
+      </c>
+      <c r="BB296">
+        <v>3</v>
+      </c>
+      <c r="BC296">
+        <v>7</v>
+      </c>
+      <c r="BD296">
+        <v>1.17</v>
+      </c>
+      <c r="BE296">
+        <v>13</v>
+      </c>
+      <c r="BF296">
+        <v>6.2</v>
+      </c>
+      <c r="BG296">
+        <v>1.16</v>
+      </c>
+      <c r="BH296">
+        <v>4.35</v>
+      </c>
+      <c r="BI296">
+        <v>1.32</v>
+      </c>
+      <c r="BJ296">
+        <v>2.98</v>
+      </c>
+      <c r="BK296">
+        <v>1.66</v>
+      </c>
+      <c r="BL296">
+        <v>2.23</v>
+      </c>
+      <c r="BM296">
+        <v>2.04</v>
+      </c>
+      <c r="BN296">
+        <v>1.78</v>
+      </c>
+      <c r="BO296">
+        <v>2.55</v>
+      </c>
+      <c r="BP296">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>6684244</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45424.35416666666</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>85</v>
+      </c>
+      <c r="H297" t="s">
+        <v>72</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>3</v>
+      </c>
+      <c r="O297" t="s">
+        <v>299</v>
+      </c>
+      <c r="P297" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q297">
+        <v>2.62</v>
+      </c>
+      <c r="R297">
+        <v>2.4</v>
+      </c>
+      <c r="S297">
+        <v>3.3</v>
+      </c>
+      <c r="T297">
+        <v>1.25</v>
+      </c>
+      <c r="U297">
+        <v>3.6</v>
+      </c>
+      <c r="V297">
+        <v>2.1</v>
+      </c>
+      <c r="W297">
+        <v>1.65</v>
+      </c>
+      <c r="X297">
+        <v>4.5</v>
+      </c>
+      <c r="Y297">
+        <v>1.17</v>
+      </c>
+      <c r="Z297">
+        <v>2.1</v>
+      </c>
+      <c r="AA297">
+        <v>3.65</v>
+      </c>
+      <c r="AB297">
+        <v>3</v>
+      </c>
+      <c r="AC297">
+        <v>1.01</v>
+      </c>
+      <c r="AD297">
+        <v>13</v>
+      </c>
+      <c r="AE297">
+        <v>1.13</v>
+      </c>
+      <c r="AF297">
+        <v>5</v>
+      </c>
+      <c r="AG297">
+        <v>1.5</v>
+      </c>
+      <c r="AH297">
+        <v>2.4</v>
+      </c>
+      <c r="AI297">
+        <v>1.42</v>
+      </c>
+      <c r="AJ297">
+        <v>2.62</v>
+      </c>
+      <c r="AK297">
+        <v>1.4</v>
+      </c>
+      <c r="AL297">
+        <v>1.25</v>
+      </c>
+      <c r="AM297">
+        <v>1.7</v>
+      </c>
+      <c r="AN297">
+        <v>2</v>
+      </c>
+      <c r="AO297">
+        <v>1.19</v>
+      </c>
+      <c r="AP297">
+        <v>1.88</v>
+      </c>
+      <c r="AQ297">
+        <v>1.29</v>
+      </c>
+      <c r="AR297">
+        <v>1.7</v>
+      </c>
+      <c r="AS297">
+        <v>1.24</v>
+      </c>
+      <c r="AT297">
+        <v>2.94</v>
+      </c>
+      <c r="AU297">
+        <v>9</v>
+      </c>
+      <c r="AV297">
+        <v>5</v>
+      </c>
+      <c r="AW297">
+        <v>7</v>
+      </c>
+      <c r="AX297">
+        <v>6</v>
+      </c>
+      <c r="AY297">
+        <v>16</v>
+      </c>
+      <c r="AZ297">
+        <v>11</v>
+      </c>
+      <c r="BA297">
+        <v>8</v>
+      </c>
+      <c r="BB297">
+        <v>6</v>
+      </c>
+      <c r="BC297">
+        <v>14</v>
+      </c>
+      <c r="BD297">
+        <v>1.75</v>
+      </c>
+      <c r="BE297">
+        <v>8.5</v>
+      </c>
+      <c r="BF297">
+        <v>2.43</v>
+      </c>
+      <c r="BG297">
+        <v>1.18</v>
+      </c>
+      <c r="BH297">
+        <v>4.2</v>
+      </c>
+      <c r="BI297">
+        <v>1.35</v>
+      </c>
+      <c r="BJ297">
+        <v>2.88</v>
+      </c>
+      <c r="BK297">
+        <v>1.61</v>
+      </c>
+      <c r="BL297">
+        <v>2.14</v>
+      </c>
+      <c r="BM297">
+        <v>2</v>
+      </c>
+      <c r="BN297">
+        <v>1.74</v>
+      </c>
+      <c r="BO297">
+        <v>2.63</v>
+      </c>
+      <c r="BP297">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>6684248</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45424.35416666666</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>78</v>
+      </c>
+      <c r="H298" t="s">
+        <v>74</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>1</v>
+      </c>
+      <c r="O298" t="s">
+        <v>104</v>
+      </c>
+      <c r="P298" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q298">
+        <v>2.5</v>
+      </c>
+      <c r="R298">
+        <v>2.25</v>
+      </c>
+      <c r="S298">
+        <v>3.75</v>
+      </c>
+      <c r="T298">
+        <v>1.32</v>
+      </c>
+      <c r="U298">
+        <v>3.15</v>
+      </c>
+      <c r="V298">
+        <v>2.45</v>
+      </c>
+      <c r="W298">
+        <v>1.49</v>
+      </c>
+      <c r="X298">
+        <v>5.45</v>
+      </c>
+      <c r="Y298">
+        <v>1.12</v>
+      </c>
+      <c r="Z298">
+        <v>1.91</v>
+      </c>
+      <c r="AA298">
+        <v>3.45</v>
+      </c>
+      <c r="AB298">
+        <v>3.6</v>
+      </c>
+      <c r="AC298">
+        <v>1.01</v>
+      </c>
+      <c r="AD298">
+        <v>12</v>
+      </c>
+      <c r="AE298">
+        <v>1.2</v>
+      </c>
+      <c r="AF298">
+        <v>4.1</v>
+      </c>
+      <c r="AG298">
+        <v>1.65</v>
+      </c>
+      <c r="AH298">
+        <v>2.1</v>
+      </c>
+      <c r="AI298">
+        <v>1.6</v>
+      </c>
+      <c r="AJ298">
+        <v>2.25</v>
+      </c>
+      <c r="AK298">
+        <v>1.3</v>
+      </c>
+      <c r="AL298">
+        <v>1.22</v>
+      </c>
+      <c r="AM298">
+        <v>1.8</v>
+      </c>
+      <c r="AN298">
+        <v>1.38</v>
+      </c>
+      <c r="AO298">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP298">
+        <v>1.47</v>
+      </c>
+      <c r="AQ298">
+        <v>0.88</v>
+      </c>
+      <c r="AR298">
+        <v>1.46</v>
+      </c>
+      <c r="AS298">
+        <v>1.29</v>
+      </c>
+      <c r="AT298">
+        <v>2.75</v>
+      </c>
+      <c r="AU298">
+        <v>7</v>
+      </c>
+      <c r="AV298">
+        <v>4</v>
+      </c>
+      <c r="AW298">
+        <v>3</v>
+      </c>
+      <c r="AX298">
+        <v>6</v>
+      </c>
+      <c r="AY298">
+        <v>10</v>
+      </c>
+      <c r="AZ298">
+        <v>10</v>
+      </c>
+      <c r="BA298">
+        <v>3</v>
+      </c>
+      <c r="BB298">
+        <v>8</v>
+      </c>
+      <c r="BC298">
+        <v>11</v>
+      </c>
+      <c r="BD298">
+        <v>1.51</v>
+      </c>
+      <c r="BE298">
+        <v>9</v>
+      </c>
+      <c r="BF298">
+        <v>3.06</v>
+      </c>
+      <c r="BG298">
+        <v>1.17</v>
+      </c>
+      <c r="BH298">
+        <v>4.3</v>
+      </c>
+      <c r="BI298">
+        <v>1.33</v>
+      </c>
+      <c r="BJ298">
+        <v>2.95</v>
+      </c>
+      <c r="BK298">
+        <v>1.58</v>
+      </c>
+      <c r="BL298">
+        <v>2.2</v>
+      </c>
+      <c r="BM298">
+        <v>2</v>
+      </c>
+      <c r="BN298">
+        <v>1.8</v>
+      </c>
+      <c r="BO298">
+        <v>2.55</v>
+      </c>
+      <c r="BP298">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="454">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -916,6 +916,21 @@
     <t>['43']</t>
   </si>
   <si>
+    <t>['44', '76']</t>
+  </si>
+  <si>
+    <t>['6', '22', '28', '90+5']</t>
+  </si>
+  <si>
+    <t>['6', '20', '88']</t>
+  </si>
+  <si>
+    <t>['36', '48', '53', '69', '76']</t>
+  </si>
+  <si>
+    <t>['67', '82']</t>
+  </si>
+  <si>
     <t>['22', '45+1', '66']</t>
   </si>
   <si>
@@ -1347,6 +1362,21 @@
   <si>
     <t>['19', '65']</t>
   </si>
+  <si>
+    <t>['31', '47']</t>
+  </si>
+  <si>
+    <t>['26', '32']</t>
+  </si>
+  <si>
+    <t>['72', '87']</t>
+  </si>
+  <si>
+    <t>['52', '56', '79']</t>
+  </si>
+  <si>
+    <t>['51', '82']</t>
+  </si>
 </sst>
 </file>
 
@@ -1707,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1966,7 +1996,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2044,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2172,7 +2202,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2250,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2378,7 +2408,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2456,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ4">
         <v>1.24</v>
@@ -2584,7 +2614,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2662,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2790,7 +2820,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2868,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3074,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ7">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3280,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3486,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3614,7 +3644,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3695,7 +3725,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ10">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4026,7 +4056,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -4438,7 +4468,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q14">
         <v>2.85</v>
@@ -4644,7 +4674,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q15">
         <v>2.7</v>
@@ -4722,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ15">
         <v>0.65</v>
@@ -5056,7 +5086,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -5262,7 +5292,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -5343,7 +5373,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ18">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5468,7 +5498,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q19">
         <v>2.7</v>
@@ -5752,10 +5782,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR20">
         <v>0.82</v>
@@ -5880,7 +5910,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5958,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ21">
         <v>1.24</v>
@@ -6086,7 +6116,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -6164,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ22">
         <v>1.29</v>
@@ -6370,10 +6400,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR23">
         <v>2.37</v>
@@ -6498,7 +6528,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6576,10 +6606,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR24">
         <v>1.05</v>
@@ -6782,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ25">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR25">
         <v>2.94</v>
@@ -6991,7 +7021,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR26">
         <v>0.84</v>
@@ -7116,7 +7146,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -7194,10 +7224,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR27">
         <v>1.88</v>
@@ -7322,7 +7352,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7403,7 +7433,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR28">
         <v>1.4</v>
@@ -7528,7 +7558,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7609,7 +7639,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ29">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR29">
         <v>1.97</v>
@@ -7734,7 +7764,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -8224,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ32">
         <v>0.65</v>
@@ -8352,7 +8382,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8430,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ33">
         <v>1.76</v>
@@ -8636,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ34">
         <v>1.29</v>
@@ -8845,7 +8875,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ35">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR35">
         <v>1.65</v>
@@ -9051,7 +9081,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ36">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR36">
         <v>1.38</v>
@@ -9460,10 +9490,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR38">
         <v>1.61</v>
@@ -9669,7 +9699,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR39">
         <v>1.36</v>
@@ -9794,7 +9824,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9872,10 +9902,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR40">
         <v>0.88</v>
@@ -10000,7 +10030,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10081,7 +10111,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR41">
         <v>1.68</v>
@@ -10287,7 +10317,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR42">
         <v>1.71</v>
@@ -10412,7 +10442,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q43">
         <v>2.7</v>
@@ -10490,10 +10520,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ43">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR43">
         <v>1.51</v>
@@ -10618,7 +10648,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10696,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.29</v>
@@ -10902,7 +10932,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>1.24</v>
@@ -11108,7 +11138,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ46">
         <v>0.65</v>
@@ -11442,7 +11472,7 @@
         <v>126</v>
       </c>
       <c r="P48" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11648,7 +11678,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11854,7 +11884,7 @@
         <v>128</v>
       </c>
       <c r="P50" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11932,7 +11962,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ50">
         <v>1.76</v>
@@ -12138,7 +12168,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
         <v>1.29</v>
@@ -12266,7 +12296,7 @@
         <v>130</v>
       </c>
       <c r="P52" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12347,7 +12377,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ52">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -12553,7 +12583,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ53">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12759,7 +12789,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ54">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR54">
         <v>1.97</v>
@@ -12962,7 +12992,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ55">
         <v>0.65</v>
@@ -13168,7 +13198,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>1.29</v>
@@ -13296,7 +13326,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q57">
         <v>2.51</v>
@@ -13377,7 +13407,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR57">
         <v>2.13</v>
@@ -13502,7 +13532,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q58">
         <v>2.78</v>
@@ -13580,10 +13610,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR58">
         <v>1.76</v>
@@ -13708,7 +13738,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13789,7 +13819,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ59">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR59">
         <v>1.2</v>
@@ -13914,7 +13944,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13992,7 +14022,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>1.24</v>
@@ -14120,7 +14150,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -14201,7 +14231,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ61">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR61">
         <v>1.86</v>
@@ -14326,7 +14356,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14407,7 +14437,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ62">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR62">
         <v>1.72</v>
@@ -14532,7 +14562,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14610,7 +14640,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ63">
         <v>0.65</v>
@@ -14816,7 +14846,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ64">
         <v>1.29</v>
@@ -15022,7 +15052,7 @@
         <v>2.33</v>
       </c>
       <c r="AP65">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ65">
         <v>1.76</v>
@@ -15150,7 +15180,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q66">
         <v>2.8</v>
@@ -15231,7 +15261,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ66">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR66">
         <v>1.7</v>
@@ -15434,10 +15464,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ67">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR67">
         <v>1.51</v>
@@ -15640,7 +15670,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ68">
         <v>0.88</v>
@@ -15768,7 +15798,7 @@
         <v>96</v>
       </c>
       <c r="P69" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q69">
         <v>2.35</v>
@@ -15849,7 +15879,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ69">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR69">
         <v>1.94</v>
@@ -15974,7 +16004,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -16055,7 +16085,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ70">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR70">
         <v>1.7</v>
@@ -16261,7 +16291,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ71">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR71">
         <v>1.27</v>
@@ -16464,7 +16494,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
         <v>0.9399999999999999</v>
@@ -16592,7 +16622,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16670,7 +16700,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>0.76</v>
@@ -16798,7 +16828,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q74">
         <v>2.05</v>
@@ -16876,7 +16906,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ74">
         <v>0.65</v>
@@ -17004,7 +17034,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17082,7 +17112,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ75">
         <v>1.29</v>
@@ -17291,7 +17321,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR76">
         <v>1.82</v>
@@ -17494,7 +17524,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
         <v>1.29</v>
@@ -17700,7 +17730,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>0.65</v>
@@ -17828,7 +17858,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17909,7 +17939,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR79">
         <v>1.93</v>
@@ -18240,7 +18270,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q81">
         <v>3.4</v>
@@ -18321,7 +18351,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR81">
         <v>1.26</v>
@@ -18446,7 +18476,7 @@
         <v>118</v>
       </c>
       <c r="P82" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q82">
         <v>2.75</v>
@@ -18527,7 +18557,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ82">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR82">
         <v>1.93</v>
@@ -18730,10 +18760,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ83">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR83">
         <v>1.9</v>
@@ -18936,10 +18966,10 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ84">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR84">
         <v>1.32</v>
@@ -19142,7 +19172,7 @@
         <v>0.5</v>
       </c>
       <c r="AP85">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ85">
         <v>0.9399999999999999</v>
@@ -19270,7 +19300,7 @@
         <v>159</v>
       </c>
       <c r="P86" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19351,7 +19381,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ86">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -19476,7 +19506,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19554,7 +19584,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
         <v>0.88</v>
@@ -19682,7 +19712,7 @@
         <v>160</v>
       </c>
       <c r="P88" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19760,7 +19790,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ88">
         <v>0.76</v>
@@ -19888,7 +19918,7 @@
         <v>161</v>
       </c>
       <c r="P89" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19966,10 +19996,10 @@
         <v>2.25</v>
       </c>
       <c r="AP89">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ89">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -20175,7 +20205,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ90">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR90">
         <v>1.91</v>
@@ -20300,7 +20330,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20381,7 +20411,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ91">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR91">
         <v>1.37</v>
@@ -20506,7 +20536,7 @@
         <v>106</v>
       </c>
       <c r="P92" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20790,7 +20820,7 @@
         <v>0.5</v>
       </c>
       <c r="AP93">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ93">
         <v>0.65</v>
@@ -20918,7 +20948,7 @@
         <v>165</v>
       </c>
       <c r="P94" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -21205,7 +21235,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ95">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -21411,7 +21441,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR96">
         <v>1.93</v>
@@ -21536,7 +21566,7 @@
         <v>168</v>
       </c>
       <c r="P97" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q97">
         <v>3.4</v>
@@ -21614,7 +21644,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ97">
         <v>1.29</v>
@@ -21742,7 +21772,7 @@
         <v>96</v>
       </c>
       <c r="P98" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21823,7 +21853,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR98">
         <v>1.76</v>
@@ -22026,7 +22056,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
         <v>0.65</v>
@@ -22154,7 +22184,7 @@
         <v>170</v>
       </c>
       <c r="P100" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22360,7 +22390,7 @@
         <v>171</v>
       </c>
       <c r="P101" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22438,7 +22468,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ101">
         <v>0.88</v>
@@ -22566,7 +22596,7 @@
         <v>96</v>
       </c>
       <c r="P102" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22644,10 +22674,10 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR102">
         <v>1.37</v>
@@ -22772,7 +22802,7 @@
         <v>96</v>
       </c>
       <c r="P103" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q103">
         <v>2.7</v>
@@ -22850,7 +22880,7 @@
         <v>0.4</v>
       </c>
       <c r="AP103">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ103">
         <v>0.9399999999999999</v>
@@ -22978,7 +23008,7 @@
         <v>172</v>
       </c>
       <c r="P104" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -23059,7 +23089,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ104">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR104">
         <v>1.4</v>
@@ -23184,7 +23214,7 @@
         <v>99</v>
       </c>
       <c r="P105" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -23262,10 +23292,10 @@
         <v>2.4</v>
       </c>
       <c r="AP105">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR105">
         <v>1.55</v>
@@ -23468,10 +23498,10 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ106">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR106">
         <v>2.02</v>
@@ -23596,7 +23626,7 @@
         <v>96</v>
       </c>
       <c r="P107" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23677,7 +23707,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR107">
         <v>1.81</v>
@@ -23880,10 +23910,10 @@
         <v>0</v>
       </c>
       <c r="AP108">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ108">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR108">
         <v>1.81</v>
@@ -24086,10 +24116,10 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ109">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR109">
         <v>1.66</v>
@@ -24214,7 +24244,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24626,7 +24656,7 @@
         <v>176</v>
       </c>
       <c r="P112" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24832,7 +24862,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24913,7 +24943,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ113">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR113">
         <v>1.47</v>
@@ -25038,7 +25068,7 @@
         <v>178</v>
       </c>
       <c r="P114" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q114">
         <v>2.75</v>
@@ -25244,7 +25274,7 @@
         <v>179</v>
       </c>
       <c r="P115" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q115">
         <v>2.4</v>
@@ -25325,7 +25355,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ115">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR115">
         <v>1.51</v>
@@ -25528,7 +25558,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
         <v>0.76</v>
@@ -25656,7 +25686,7 @@
         <v>181</v>
       </c>
       <c r="P117" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25940,7 +25970,7 @@
         <v>2</v>
       </c>
       <c r="AP118">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
         <v>1.76</v>
@@ -26146,10 +26176,10 @@
         <v>0</v>
       </c>
       <c r="AP119">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ119">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR119">
         <v>2.01</v>
@@ -26274,7 +26304,7 @@
         <v>184</v>
       </c>
       <c r="P120" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26352,10 +26382,10 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ120">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR120">
         <v>1.79</v>
@@ -26558,10 +26588,10 @@
         <v>1.43</v>
       </c>
       <c r="AP121">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR121">
         <v>1.27</v>
@@ -26686,7 +26716,7 @@
         <v>186</v>
       </c>
       <c r="P122" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q122">
         <v>4.5</v>
@@ -26764,10 +26794,10 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ122">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR122">
         <v>1.56</v>
@@ -26892,7 +26922,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26970,10 +27000,10 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR123">
         <v>1.53</v>
@@ -27098,7 +27128,7 @@
         <v>187</v>
       </c>
       <c r="P124" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27176,10 +27206,10 @@
         <v>0.57</v>
       </c>
       <c r="AP124">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ124">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -27385,7 +27415,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ125">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR125">
         <v>1.8</v>
@@ -27510,7 +27540,7 @@
         <v>96</v>
       </c>
       <c r="P126" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q126">
         <v>2.75</v>
@@ -27588,10 +27618,10 @@
         <v>2.17</v>
       </c>
       <c r="AP126">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ126">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR126">
         <v>1.63</v>
@@ -27794,7 +27824,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ127">
         <v>0.88</v>
@@ -28128,7 +28158,7 @@
         <v>191</v>
       </c>
       <c r="P129" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q129">
         <v>2.5</v>
@@ -28334,7 +28364,7 @@
         <v>192</v>
       </c>
       <c r="P130" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q130">
         <v>2.38</v>
@@ -28540,7 +28570,7 @@
         <v>96</v>
       </c>
       <c r="P131" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28746,7 +28776,7 @@
         <v>96</v>
       </c>
       <c r="P132" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -29158,7 +29188,7 @@
         <v>194</v>
       </c>
       <c r="P134" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q134">
         <v>2.25</v>
@@ -29570,7 +29600,7 @@
         <v>196</v>
       </c>
       <c r="P136" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29776,7 +29806,7 @@
         <v>197</v>
       </c>
       <c r="P137" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q137">
         <v>2.65</v>
@@ -29854,10 +29884,10 @@
         <v>0.71</v>
       </c>
       <c r="AP137">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ137">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR137">
         <v>1.74</v>
@@ -29982,7 +30012,7 @@
         <v>161</v>
       </c>
       <c r="P138" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -30060,10 +30090,10 @@
         <v>0</v>
       </c>
       <c r="AP138">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ138">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR138">
         <v>1.16</v>
@@ -30188,7 +30218,7 @@
         <v>198</v>
       </c>
       <c r="P139" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q139">
         <v>2.05</v>
@@ -30266,10 +30296,10 @@
         <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR139">
         <v>1.96</v>
@@ -30394,7 +30424,7 @@
         <v>199</v>
       </c>
       <c r="P140" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -30472,10 +30502,10 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ140">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30678,10 +30708,10 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR141">
         <v>1.61</v>
@@ -30806,7 +30836,7 @@
         <v>201</v>
       </c>
       <c r="P142" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -30884,10 +30914,10 @@
         <v>2.14</v>
       </c>
       <c r="AP142">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR142">
         <v>1.46</v>
@@ -31090,10 +31120,10 @@
         <v>2.29</v>
       </c>
       <c r="AP143">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ143">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR143">
         <v>1.77</v>
@@ -31218,7 +31248,7 @@
         <v>96</v>
       </c>
       <c r="P144" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q144">
         <v>3.4</v>
@@ -31296,10 +31326,10 @@
         <v>0.5</v>
       </c>
       <c r="AP144">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ144">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -31502,10 +31532,10 @@
         <v>1.25</v>
       </c>
       <c r="AP145">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ145">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR145">
         <v>1.36</v>
@@ -31630,7 +31660,7 @@
         <v>202</v>
       </c>
       <c r="P146" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -32042,7 +32072,7 @@
         <v>204</v>
       </c>
       <c r="P148" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q148">
         <v>2.9</v>
@@ -32454,7 +32484,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -33072,7 +33102,7 @@
         <v>172</v>
       </c>
       <c r="P153" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q153">
         <v>1.8</v>
@@ -33278,7 +33308,7 @@
         <v>207</v>
       </c>
       <c r="P154" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q154">
         <v>2.63</v>
@@ -33484,7 +33514,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q155">
         <v>2.05</v>
@@ -33690,7 +33720,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33771,7 +33801,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ156">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR156">
         <v>1.73</v>
@@ -34308,7 +34338,7 @@
         <v>212</v>
       </c>
       <c r="P159" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34386,7 +34416,7 @@
         <v>1</v>
       </c>
       <c r="AP159">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ159">
         <v>1.29</v>
@@ -34514,7 +34544,7 @@
         <v>96</v>
       </c>
       <c r="P160" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -34720,7 +34750,7 @@
         <v>213</v>
       </c>
       <c r="P161" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -35416,10 +35446,10 @@
         <v>0.78</v>
       </c>
       <c r="AP164">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ164">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR164">
         <v>1.54</v>
@@ -35622,10 +35652,10 @@
         <v>1.44</v>
       </c>
       <c r="AP165">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ165">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR165">
         <v>1.74</v>
@@ -35828,10 +35858,10 @@
         <v>1.44</v>
       </c>
       <c r="AP166">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ166">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR166">
         <v>1.42</v>
@@ -36034,7 +36064,7 @@
         <v>1.56</v>
       </c>
       <c r="AP167">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ167">
         <v>1.24</v>
@@ -36240,10 +36270,10 @@
         <v>1.22</v>
       </c>
       <c r="AP168">
+        <v>1</v>
+      </c>
+      <c r="AQ168">
         <v>1.06</v>
-      </c>
-      <c r="AQ168">
-        <v>1.13</v>
       </c>
       <c r="AR168">
         <v>1.13</v>
@@ -36368,7 +36398,7 @@
         <v>141</v>
       </c>
       <c r="P169" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q169">
         <v>3.53</v>
@@ -36446,10 +36476,10 @@
         <v>2</v>
       </c>
       <c r="AP169">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ169">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR169">
         <v>1.76</v>
@@ -36655,7 +36685,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ170">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR170">
         <v>1.54</v>
@@ -36780,7 +36810,7 @@
         <v>218</v>
       </c>
       <c r="P171" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36858,10 +36888,10 @@
         <v>0.75</v>
       </c>
       <c r="AP171">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ171">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR171">
         <v>1.97</v>
@@ -37064,10 +37094,10 @@
         <v>2.38</v>
       </c>
       <c r="AP172">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ172">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR172">
         <v>1.62</v>
@@ -37192,7 +37222,7 @@
         <v>119</v>
       </c>
       <c r="P173" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q173">
         <v>2.7</v>
@@ -37273,7 +37303,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ173">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR173">
         <v>1.74</v>
@@ -37398,7 +37428,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q174">
         <v>2.15</v>
@@ -37604,7 +37634,7 @@
         <v>221</v>
       </c>
       <c r="P175" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q175">
         <v>2.42</v>
@@ -37891,7 +37921,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ176">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR176">
         <v>1.74</v>
@@ -38016,7 +38046,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q177">
         <v>2.33</v>
@@ -38222,7 +38252,7 @@
         <v>92</v>
       </c>
       <c r="P178" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q178">
         <v>3.38</v>
@@ -38428,7 +38458,7 @@
         <v>224</v>
       </c>
       <c r="P179" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38712,7 +38742,7 @@
         <v>0.78</v>
       </c>
       <c r="AP180">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ180">
         <v>0.65</v>
@@ -38840,7 +38870,7 @@
         <v>226</v>
       </c>
       <c r="P181" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q181">
         <v>2.63</v>
@@ -38918,7 +38948,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP181">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ181">
         <v>0.76</v>
@@ -39124,10 +39154,10 @@
         <v>1.3</v>
       </c>
       <c r="AP182">
+        <v>1</v>
+      </c>
+      <c r="AQ182">
         <v>1.06</v>
-      </c>
-      <c r="AQ182">
-        <v>1.13</v>
       </c>
       <c r="AR182">
         <v>1.19</v>
@@ -39252,7 +39282,7 @@
         <v>227</v>
       </c>
       <c r="P183" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q183">
         <v>2.25</v>
@@ -39330,7 +39360,7 @@
         <v>1</v>
       </c>
       <c r="AP183">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ183">
         <v>1.29</v>
@@ -39536,7 +39566,7 @@
         <v>1.4</v>
       </c>
       <c r="AP184">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ184">
         <v>1.24</v>
@@ -39745,7 +39775,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ185">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR185">
         <v>1.79</v>
@@ -39951,7 +39981,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ186">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR186">
         <v>1.55</v>
@@ -40076,7 +40106,7 @@
         <v>231</v>
       </c>
       <c r="P187" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q187">
         <v>2.88</v>
@@ -40154,10 +40184,10 @@
         <v>1.4</v>
       </c>
       <c r="AP187">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ187">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR187">
         <v>1.55</v>
@@ -40363,7 +40393,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ188">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR188">
         <v>1.8</v>
@@ -40488,7 +40518,7 @@
         <v>97</v>
       </c>
       <c r="P189" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q189">
         <v>2.5</v>
@@ -40566,10 +40596,10 @@
         <v>1.1</v>
       </c>
       <c r="AP189">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ189">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR189">
         <v>1.65</v>
@@ -40772,7 +40802,7 @@
         <v>0.7</v>
       </c>
       <c r="AP190">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ190">
         <v>0.65</v>
@@ -40900,7 +40930,7 @@
         <v>232</v>
       </c>
       <c r="P191" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q191">
         <v>2.65</v>
@@ -40978,7 +41008,7 @@
         <v>1.2</v>
       </c>
       <c r="AP191">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ191">
         <v>0.9399999999999999</v>
@@ -41106,7 +41136,7 @@
         <v>233</v>
       </c>
       <c r="P192" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q192">
         <v>2.76</v>
@@ -41187,7 +41217,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ192">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR192">
         <v>1.37</v>
@@ -41312,7 +41342,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q193">
         <v>2.68</v>
@@ -41393,7 +41423,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ193">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR193">
         <v>1.8</v>
@@ -41724,7 +41754,7 @@
         <v>234</v>
       </c>
       <c r="P195" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -41802,7 +41832,7 @@
         <v>1.45</v>
       </c>
       <c r="AP195">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ195">
         <v>1.29</v>
@@ -41930,7 +41960,7 @@
         <v>235</v>
       </c>
       <c r="P196" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -42217,7 +42247,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ197">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR197">
         <v>1.97</v>
@@ -42342,7 +42372,7 @@
         <v>237</v>
       </c>
       <c r="P198" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -42626,7 +42656,7 @@
         <v>0.4</v>
       </c>
       <c r="AP199">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ199">
         <v>0.65</v>
@@ -42754,7 +42784,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q200">
         <v>3.27</v>
@@ -42832,10 +42862,10 @@
         <v>1.55</v>
       </c>
       <c r="AP200">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ200">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR200">
         <v>1.16</v>
@@ -42960,7 +42990,7 @@
         <v>240</v>
       </c>
       <c r="P201" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q201">
         <v>3.6</v>
@@ -43041,7 +43071,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ201">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR201">
         <v>1.81</v>
@@ -43244,7 +43274,7 @@
         <v>1.18</v>
       </c>
       <c r="AP202">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ202">
         <v>1.29</v>
@@ -43372,7 +43402,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q203">
         <v>2.6</v>
@@ -43450,10 +43480,10 @@
         <v>0.9</v>
       </c>
       <c r="AP203">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ203">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR203">
         <v>1.52</v>
@@ -43659,7 +43689,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ204">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR204">
         <v>1.52</v>
@@ -43865,7 +43895,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ205">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR205">
         <v>1.74</v>
@@ -44068,7 +44098,7 @@
         <v>0.73</v>
       </c>
       <c r="AP206">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ206">
         <v>0.65</v>
@@ -44274,7 +44304,7 @@
         <v>1.36</v>
       </c>
       <c r="AP207">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ207">
         <v>1.24</v>
@@ -44402,7 +44432,7 @@
         <v>245</v>
       </c>
       <c r="P208" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q208">
         <v>2.25</v>
@@ -44480,10 +44510,10 @@
         <v>1.27</v>
       </c>
       <c r="AP208">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ208">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR208">
         <v>1.68</v>
@@ -44689,7 +44719,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ209">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR209">
         <v>1.67</v>
@@ -44814,7 +44844,7 @@
         <v>247</v>
       </c>
       <c r="P210" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q210">
         <v>3.06</v>
@@ -44895,7 +44925,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ210">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR210">
         <v>1.42</v>
@@ -45020,7 +45050,7 @@
         <v>248</v>
       </c>
       <c r="P211" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q211">
         <v>3.07</v>
@@ -45098,7 +45128,7 @@
         <v>1.64</v>
       </c>
       <c r="AP211">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ211">
         <v>1.76</v>
@@ -45307,7 +45337,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ212">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR212">
         <v>1.25</v>
@@ -45432,7 +45462,7 @@
         <v>96</v>
       </c>
       <c r="P213" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q213">
         <v>3.85</v>
@@ -45510,7 +45540,7 @@
         <v>0.55</v>
       </c>
       <c r="AP213">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ213">
         <v>0.76</v>
@@ -45844,7 +45874,7 @@
         <v>96</v>
       </c>
       <c r="P215" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q215">
         <v>2.4</v>
@@ -45922,7 +45952,7 @@
         <v>0.92</v>
       </c>
       <c r="AP215">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ215">
         <v>0.88</v>
@@ -46131,7 +46161,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ216">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR216">
         <v>1.72</v>
@@ -46256,7 +46286,7 @@
         <v>251</v>
       </c>
       <c r="P217" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q217">
         <v>1.83</v>
@@ -46334,7 +46364,7 @@
         <v>0.36</v>
       </c>
       <c r="AP217">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ217">
         <v>0.65</v>
@@ -46540,7 +46570,7 @@
         <v>1.42</v>
       </c>
       <c r="AP218">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ218">
         <v>1.29</v>
@@ -46874,7 +46904,7 @@
         <v>253</v>
       </c>
       <c r="P220" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46955,7 +46985,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ220">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR220">
         <v>1.66</v>
@@ -47161,7 +47191,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ221">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR221">
         <v>1.78</v>
@@ -47286,7 +47316,7 @@
         <v>152</v>
       </c>
       <c r="P222" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q222">
         <v>3.3</v>
@@ -47364,7 +47394,7 @@
         <v>1.08</v>
       </c>
       <c r="AP222">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ222">
         <v>1.29</v>
@@ -47573,7 +47603,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ223">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR223">
         <v>1.71</v>
@@ -47779,7 +47809,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ224">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR224">
         <v>1.91</v>
@@ -47904,7 +47934,7 @@
         <v>255</v>
       </c>
       <c r="P225" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q225">
         <v>2.38</v>
@@ -47982,7 +48012,7 @@
         <v>0.58</v>
       </c>
       <c r="AP225">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ225">
         <v>0.65</v>
@@ -48110,7 +48140,7 @@
         <v>222</v>
       </c>
       <c r="P226" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q226">
         <v>2.4</v>
@@ -48188,7 +48218,7 @@
         <v>1.25</v>
       </c>
       <c r="AP226">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ226">
         <v>1.24</v>
@@ -48316,7 +48346,7 @@
         <v>222</v>
       </c>
       <c r="P227" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q227">
         <v>2.35</v>
@@ -48397,7 +48427,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ227">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR227">
         <v>1.71</v>
@@ -48522,7 +48552,7 @@
         <v>96</v>
       </c>
       <c r="P228" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q228">
         <v>3.9</v>
@@ -48600,7 +48630,7 @@
         <v>1.58</v>
       </c>
       <c r="AP228">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ228">
         <v>1.76</v>
@@ -48728,7 +48758,7 @@
         <v>96</v>
       </c>
       <c r="P229" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q229">
         <v>3.1</v>
@@ -48806,10 +48836,10 @@
         <v>2</v>
       </c>
       <c r="AP229">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ229">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR229">
         <v>1.3</v>
@@ -48934,7 +48964,7 @@
         <v>96</v>
       </c>
       <c r="P230" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49015,7 +49045,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ230">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR230">
         <v>1.26</v>
@@ -49218,7 +49248,7 @@
         <v>1</v>
       </c>
       <c r="AP231">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ231">
         <v>0.9399999999999999</v>
@@ -49424,7 +49454,7 @@
         <v>0.75</v>
       </c>
       <c r="AP232">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ232">
         <v>0.76</v>
@@ -49633,7 +49663,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ233">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR233">
         <v>1.72</v>
@@ -49758,7 +49788,7 @@
         <v>259</v>
       </c>
       <c r="P234" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49839,7 +49869,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ234">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR234">
         <v>1.43</v>
@@ -50042,7 +50072,7 @@
         <v>1.08</v>
       </c>
       <c r="AP235">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ235">
         <v>0.88</v>
@@ -50376,7 +50406,7 @@
         <v>262</v>
       </c>
       <c r="P237" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q237">
         <v>3.25</v>
@@ -50454,7 +50484,7 @@
         <v>1.69</v>
       </c>
       <c r="AP237">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ237">
         <v>1.76</v>
@@ -50788,7 +50818,7 @@
         <v>264</v>
       </c>
       <c r="P239" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q239">
         <v>2.3</v>
@@ -50869,7 +50899,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ239">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR239">
         <v>1.49</v>
@@ -51075,7 +51105,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ240">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR240">
         <v>1.66</v>
@@ -51281,7 +51311,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ241">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR241">
         <v>1.88</v>
@@ -51406,7 +51436,7 @@
         <v>96</v>
       </c>
       <c r="P242" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q242">
         <v>2.88</v>
@@ -51690,7 +51720,7 @@
         <v>1.31</v>
       </c>
       <c r="AP243">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ243">
         <v>1.29</v>
@@ -51818,7 +51848,7 @@
         <v>96</v>
       </c>
       <c r="P244" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q244">
         <v>2.6</v>
@@ -51896,7 +51926,7 @@
         <v>0.54</v>
       </c>
       <c r="AP244">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ244">
         <v>0.65</v>
@@ -52024,7 +52054,7 @@
         <v>267</v>
       </c>
       <c r="P245" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q245">
         <v>2.6</v>
@@ -52105,7 +52135,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ245">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR245">
         <v>1.72</v>
@@ -52308,7 +52338,7 @@
         <v>1</v>
       </c>
       <c r="AP246">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ246">
         <v>0.88</v>
@@ -52514,7 +52544,7 @@
         <v>0.77</v>
       </c>
       <c r="AP247">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ247">
         <v>0.76</v>
@@ -52720,10 +52750,10 @@
         <v>0.77</v>
       </c>
       <c r="AP248">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ248">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR248">
         <v>1.29</v>
@@ -52848,7 +52878,7 @@
         <v>96</v>
       </c>
       <c r="P249" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -52929,7 +52959,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ249">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR249">
         <v>1.19</v>
@@ -53054,7 +53084,7 @@
         <v>270</v>
       </c>
       <c r="P250" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -53135,7 +53165,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ250">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR250">
         <v>1.77</v>
@@ -53338,10 +53368,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP251">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ251">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR251">
         <v>1.69</v>
@@ -53544,7 +53574,7 @@
         <v>0.92</v>
       </c>
       <c r="AP252">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ252">
         <v>0.9399999999999999</v>
@@ -53672,7 +53702,7 @@
         <v>151</v>
       </c>
       <c r="P253" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q253">
         <v>2.45</v>
@@ -53750,10 +53780,10 @@
         <v>0.54</v>
       </c>
       <c r="AP253">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ253">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR253">
         <v>1.77</v>
@@ -54162,7 +54192,7 @@
         <v>0.71</v>
       </c>
       <c r="AP255">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ255">
         <v>0.76</v>
@@ -54290,7 +54320,7 @@
         <v>96</v>
       </c>
       <c r="P256" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -54368,7 +54398,7 @@
         <v>1.79</v>
       </c>
       <c r="AP256">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ256">
         <v>1.76</v>
@@ -54577,7 +54607,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ257">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR257">
         <v>1.74</v>
@@ -54989,7 +55019,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ259">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR259">
         <v>1.64</v>
@@ -55114,7 +55144,7 @@
         <v>278</v>
       </c>
       <c r="P260" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="Q260">
         <v>1.95</v>
@@ -55320,7 +55350,7 @@
         <v>279</v>
       </c>
       <c r="P261" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q261">
         <v>3.5</v>
@@ -55813,7 +55843,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ263">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR263">
         <v>1.15</v>
@@ -56016,10 +56046,10 @@
         <v>0.57</v>
       </c>
       <c r="AP264">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ264">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR264">
         <v>1.28</v>
@@ -56144,7 +56174,7 @@
         <v>239</v>
       </c>
       <c r="P265" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q265">
         <v>2.35</v>
@@ -56222,7 +56252,7 @@
         <v>0.93</v>
       </c>
       <c r="AP265">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ265">
         <v>0.88</v>
@@ -56428,7 +56458,7 @@
         <v>0.86</v>
       </c>
       <c r="AP266">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ266">
         <v>0.9399999999999999</v>
@@ -56556,7 +56586,7 @@
         <v>96</v>
       </c>
       <c r="P267" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q267">
         <v>3.54</v>
@@ -56634,10 +56664,10 @@
         <v>0.64</v>
       </c>
       <c r="AP267">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ267">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR267">
         <v>1.39</v>
@@ -56840,10 +56870,10 @@
         <v>2.14</v>
       </c>
       <c r="AP268">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ268">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR268">
         <v>1.9</v>
@@ -56968,7 +56998,7 @@
         <v>281</v>
       </c>
       <c r="P269" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q269">
         <v>2.45</v>
@@ -57049,7 +57079,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ269">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR269">
         <v>1.73</v>
@@ -57174,7 +57204,7 @@
         <v>128</v>
       </c>
       <c r="P270" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q270">
         <v>3.4</v>
@@ -57252,10 +57282,10 @@
         <v>1.79</v>
       </c>
       <c r="AP270">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ270">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR270">
         <v>1.72</v>
@@ -57380,7 +57410,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57458,10 +57488,10 @@
         <v>0.79</v>
       </c>
       <c r="AP271">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ271">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR271">
         <v>1.35</v>
@@ -57586,7 +57616,7 @@
         <v>282</v>
       </c>
       <c r="P272" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q272">
         <v>3.05</v>
@@ -58204,7 +58234,7 @@
         <v>285</v>
       </c>
       <c r="P275" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q275">
         <v>2.2</v>
@@ -58410,7 +58440,7 @@
         <v>96</v>
       </c>
       <c r="P276" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q276">
         <v>3.55</v>
@@ -58616,7 +58646,7 @@
         <v>99</v>
       </c>
       <c r="P277" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Q277">
         <v>3.28</v>
@@ -59028,7 +59058,7 @@
         <v>96</v>
       </c>
       <c r="P279" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q279">
         <v>3.68</v>
@@ -59109,7 +59139,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ279">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR279">
         <v>1.2</v>
@@ -59234,7 +59264,7 @@
         <v>287</v>
       </c>
       <c r="P280" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Q280">
         <v>2.95</v>
@@ -59312,7 +59342,7 @@
         <v>0.8</v>
       </c>
       <c r="AP280">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ280">
         <v>0.9399999999999999</v>
@@ -59518,10 +59548,10 @@
         <v>1.2</v>
       </c>
       <c r="AP281">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ281">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR281">
         <v>1.63</v>
@@ -59724,10 +59754,10 @@
         <v>1.87</v>
       </c>
       <c r="AP282">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ282">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR282">
         <v>1.88</v>
@@ -59852,7 +59882,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q283">
         <v>3</v>
@@ -59930,10 +59960,10 @@
         <v>0.8</v>
       </c>
       <c r="AP283">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ283">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR283">
         <v>1.59</v>
@@ -60058,7 +60088,7 @@
         <v>152</v>
       </c>
       <c r="P284" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Q284">
         <v>3.3</v>
@@ -60136,10 +60166,10 @@
         <v>1.13</v>
       </c>
       <c r="AP284">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ284">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR284">
         <v>1.34</v>
@@ -60342,10 +60372,10 @@
         <v>0.93</v>
       </c>
       <c r="AP285">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ285">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR285">
         <v>1.48</v>
@@ -60470,7 +60500,7 @@
         <v>291</v>
       </c>
       <c r="P286" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Q286">
         <v>2.5</v>
@@ -60548,10 +60578,10 @@
         <v>1.6</v>
       </c>
       <c r="AP286">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ286">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR286">
         <v>1.72</v>
@@ -60676,7 +60706,7 @@
         <v>292</v>
       </c>
       <c r="P287" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q287">
         <v>3.02</v>
@@ -60754,10 +60784,10 @@
         <v>1.2</v>
       </c>
       <c r="AP287">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ287">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR287">
         <v>1.29</v>
@@ -60960,10 +60990,10 @@
         <v>2.2</v>
       </c>
       <c r="AP288">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ288">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR288">
         <v>1.18</v>
@@ -61088,7 +61118,7 @@
         <v>96</v>
       </c>
       <c r="P289" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Q289">
         <v>3.6</v>
@@ -61166,10 +61196,10 @@
         <v>0.6</v>
       </c>
       <c r="AP289">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ289">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR289">
         <v>1.4</v>
@@ -61706,7 +61736,7 @@
         <v>294</v>
       </c>
       <c r="P292" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q292">
         <v>2.25</v>
@@ -62736,7 +62766,7 @@
         <v>299</v>
       </c>
       <c r="P297" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Q297">
         <v>2.62</v>
@@ -63099,6 +63129,1860 @@
       </c>
       <c r="BP298">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>6684256</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45431.4375</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>73</v>
+      </c>
+      <c r="H299" t="s">
+        <v>80</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>1</v>
+      </c>
+      <c r="K299">
+        <v>2</v>
+      </c>
+      <c r="L299">
+        <v>2</v>
+      </c>
+      <c r="M299">
+        <v>1</v>
+      </c>
+      <c r="N299">
+        <v>3</v>
+      </c>
+      <c r="O299" t="s">
+        <v>300</v>
+      </c>
+      <c r="P299" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q299">
+        <v>3.25</v>
+      </c>
+      <c r="R299">
+        <v>2.55</v>
+      </c>
+      <c r="S299">
+        <v>2.4</v>
+      </c>
+      <c r="T299">
+        <v>1.2</v>
+      </c>
+      <c r="U299">
+        <v>4</v>
+      </c>
+      <c r="V299">
+        <v>1.91</v>
+      </c>
+      <c r="W299">
+        <v>1.8</v>
+      </c>
+      <c r="X299">
+        <v>3.75</v>
+      </c>
+      <c r="Y299">
+        <v>1.25</v>
+      </c>
+      <c r="Z299">
+        <v>3.1</v>
+      </c>
+      <c r="AA299">
+        <v>3.7</v>
+      </c>
+      <c r="AB299">
+        <v>1.95</v>
+      </c>
+      <c r="AC299">
+        <v>1.01</v>
+      </c>
+      <c r="AD299">
+        <v>29.5</v>
+      </c>
+      <c r="AE299">
+        <v>1.1</v>
+      </c>
+      <c r="AF299">
+        <v>6.5</v>
+      </c>
+      <c r="AG299">
+        <v>1.34</v>
+      </c>
+      <c r="AH299">
+        <v>3.09</v>
+      </c>
+      <c r="AI299">
+        <v>1.3</v>
+      </c>
+      <c r="AJ299">
+        <v>3.1</v>
+      </c>
+      <c r="AK299">
+        <v>1.7</v>
+      </c>
+      <c r="AL299">
+        <v>1.22</v>
+      </c>
+      <c r="AM299">
+        <v>1.33</v>
+      </c>
+      <c r="AN299">
+        <v>0.88</v>
+      </c>
+      <c r="AO299">
+        <v>1.13</v>
+      </c>
+      <c r="AP299">
+        <v>1</v>
+      </c>
+      <c r="AQ299">
+        <v>1.06</v>
+      </c>
+      <c r="AR299">
+        <v>1.4</v>
+      </c>
+      <c r="AS299">
+        <v>1.37</v>
+      </c>
+      <c r="AT299">
+        <v>2.77</v>
+      </c>
+      <c r="AU299">
+        <v>4</v>
+      </c>
+      <c r="AV299">
+        <v>7</v>
+      </c>
+      <c r="AW299">
+        <v>11</v>
+      </c>
+      <c r="AX299">
+        <v>12</v>
+      </c>
+      <c r="AY299">
+        <v>15</v>
+      </c>
+      <c r="AZ299">
+        <v>19</v>
+      </c>
+      <c r="BA299">
+        <v>7</v>
+      </c>
+      <c r="BB299">
+        <v>5</v>
+      </c>
+      <c r="BC299">
+        <v>12</v>
+      </c>
+      <c r="BD299">
+        <v>2.05</v>
+      </c>
+      <c r="BE299">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF299">
+        <v>1.99</v>
+      </c>
+      <c r="BG299">
+        <v>1.09</v>
+      </c>
+      <c r="BH299">
+        <v>5.65</v>
+      </c>
+      <c r="BI299">
+        <v>1.21</v>
+      </c>
+      <c r="BJ299">
+        <v>3.74</v>
+      </c>
+      <c r="BK299">
+        <v>1.52</v>
+      </c>
+      <c r="BL299">
+        <v>2.47</v>
+      </c>
+      <c r="BM299">
+        <v>1.84</v>
+      </c>
+      <c r="BN299">
+        <v>1.97</v>
+      </c>
+      <c r="BO299">
+        <v>1.98</v>
+      </c>
+      <c r="BP299">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>6684249</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45431.4375</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>70</v>
+      </c>
+      <c r="H300" t="s">
+        <v>87</v>
+      </c>
+      <c r="I300">
+        <v>3</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300">
+        <v>4</v>
+      </c>
+      <c r="L300">
+        <v>4</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+      <c r="N300">
+        <v>5</v>
+      </c>
+      <c r="O300" t="s">
+        <v>301</v>
+      </c>
+      <c r="P300" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q300">
+        <v>1.7</v>
+      </c>
+      <c r="R300">
+        <v>2.85</v>
+      </c>
+      <c r="S300">
+        <v>5.75</v>
+      </c>
+      <c r="T300">
+        <v>1.17</v>
+      </c>
+      <c r="U300">
+        <v>4.5</v>
+      </c>
+      <c r="V300">
+        <v>1.85</v>
+      </c>
+      <c r="W300">
+        <v>1.85</v>
+      </c>
+      <c r="X300">
+        <v>3.6</v>
+      </c>
+      <c r="Y300">
+        <v>1.25</v>
+      </c>
+      <c r="Z300">
+        <v>1.3</v>
+      </c>
+      <c r="AA300">
+        <v>5.5</v>
+      </c>
+      <c r="AB300">
+        <v>6.5</v>
+      </c>
+      <c r="AC300">
+        <v>1.01</v>
+      </c>
+      <c r="AD300">
+        <v>38</v>
+      </c>
+      <c r="AE300">
+        <v>1.07</v>
+      </c>
+      <c r="AF300">
+        <v>8</v>
+      </c>
+      <c r="AG300">
+        <v>1.25</v>
+      </c>
+      <c r="AH300">
+        <v>3.71</v>
+      </c>
+      <c r="AI300">
+        <v>1.48</v>
+      </c>
+      <c r="AJ300">
+        <v>2.4</v>
+      </c>
+      <c r="AK300">
+        <v>1.09</v>
+      </c>
+      <c r="AL300">
+        <v>1.1</v>
+      </c>
+      <c r="AM300">
+        <v>3.2</v>
+      </c>
+      <c r="AN300">
+        <v>2.06</v>
+      </c>
+      <c r="AO300">
+        <v>1.13</v>
+      </c>
+      <c r="AP300">
+        <v>2.12</v>
+      </c>
+      <c r="AQ300">
+        <v>1.06</v>
+      </c>
+      <c r="AR300">
+        <v>1.85</v>
+      </c>
+      <c r="AS300">
+        <v>1.32</v>
+      </c>
+      <c r="AT300">
+        <v>3.17</v>
+      </c>
+      <c r="AU300">
+        <v>5</v>
+      </c>
+      <c r="AV300">
+        <v>3</v>
+      </c>
+      <c r="AW300">
+        <v>8</v>
+      </c>
+      <c r="AX300">
+        <v>13</v>
+      </c>
+      <c r="AY300">
+        <v>13</v>
+      </c>
+      <c r="AZ300">
+        <v>16</v>
+      </c>
+      <c r="BA300">
+        <v>4</v>
+      </c>
+      <c r="BB300">
+        <v>6</v>
+      </c>
+      <c r="BC300">
+        <v>10</v>
+      </c>
+      <c r="BD300">
+        <v>1.19</v>
+      </c>
+      <c r="BE300">
+        <v>13.25</v>
+      </c>
+      <c r="BF300">
+        <v>5.65</v>
+      </c>
+      <c r="BG300">
+        <v>1.12</v>
+      </c>
+      <c r="BH300">
+        <v>5.25</v>
+      </c>
+      <c r="BI300">
+        <v>1.18</v>
+      </c>
+      <c r="BJ300">
+        <v>4.05</v>
+      </c>
+      <c r="BK300">
+        <v>1.35</v>
+      </c>
+      <c r="BL300">
+        <v>2.84</v>
+      </c>
+      <c r="BM300">
+        <v>1.66</v>
+      </c>
+      <c r="BN300">
+        <v>2.22</v>
+      </c>
+      <c r="BO300">
+        <v>2</v>
+      </c>
+      <c r="BP300">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>6684250</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45431.4375</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>75</v>
+      </c>
+      <c r="H301" t="s">
+        <v>86</v>
+      </c>
+      <c r="I301">
+        <v>2</v>
+      </c>
+      <c r="J301">
+        <v>1</v>
+      </c>
+      <c r="K301">
+        <v>3</v>
+      </c>
+      <c r="L301">
+        <v>3</v>
+      </c>
+      <c r="M301">
+        <v>2</v>
+      </c>
+      <c r="N301">
+        <v>5</v>
+      </c>
+      <c r="O301" t="s">
+        <v>302</v>
+      </c>
+      <c r="P301" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q301">
+        <v>2.3</v>
+      </c>
+      <c r="R301">
+        <v>2.38</v>
+      </c>
+      <c r="S301">
+        <v>3.8</v>
+      </c>
+      <c r="T301">
+        <v>1.25</v>
+      </c>
+      <c r="U301">
+        <v>3.6</v>
+      </c>
+      <c r="V301">
+        <v>2.17</v>
+      </c>
+      <c r="W301">
+        <v>1.71</v>
+      </c>
+      <c r="X301">
+        <v>4.33</v>
+      </c>
+      <c r="Y301">
+        <v>1.2</v>
+      </c>
+      <c r="Z301">
+        <v>1.8</v>
+      </c>
+      <c r="AA301">
+        <v>3.8</v>
+      </c>
+      <c r="AB301">
+        <v>3.45</v>
+      </c>
+      <c r="AC301">
+        <v>1.02</v>
+      </c>
+      <c r="AD301">
+        <v>22.5</v>
+      </c>
+      <c r="AE301">
+        <v>1.14</v>
+      </c>
+      <c r="AF301">
+        <v>5.5</v>
+      </c>
+      <c r="AG301">
+        <v>1.41</v>
+      </c>
+      <c r="AH301">
+        <v>2.78</v>
+      </c>
+      <c r="AI301">
+        <v>1.45</v>
+      </c>
+      <c r="AJ301">
+        <v>2.55</v>
+      </c>
+      <c r="AK301">
+        <v>1.25</v>
+      </c>
+      <c r="AL301">
+        <v>1.2</v>
+      </c>
+      <c r="AM301">
+        <v>1.91</v>
+      </c>
+      <c r="AN301">
+        <v>1.88</v>
+      </c>
+      <c r="AO301">
+        <v>0.88</v>
+      </c>
+      <c r="AP301">
+        <v>1.94</v>
+      </c>
+      <c r="AQ301">
+        <v>0.82</v>
+      </c>
+      <c r="AR301">
+        <v>1.69</v>
+      </c>
+      <c r="AS301">
+        <v>1.31</v>
+      </c>
+      <c r="AT301">
+        <v>3</v>
+      </c>
+      <c r="AU301">
+        <v>8</v>
+      </c>
+      <c r="AV301">
+        <v>10</v>
+      </c>
+      <c r="AW301">
+        <v>12</v>
+      </c>
+      <c r="AX301">
+        <v>4</v>
+      </c>
+      <c r="AY301">
+        <v>20</v>
+      </c>
+      <c r="AZ301">
+        <v>14</v>
+      </c>
+      <c r="BA301">
+        <v>6</v>
+      </c>
+      <c r="BB301">
+        <v>11</v>
+      </c>
+      <c r="BC301">
+        <v>17</v>
+      </c>
+      <c r="BD301">
+        <v>1.6</v>
+      </c>
+      <c r="BE301">
+        <v>9.5</v>
+      </c>
+      <c r="BF301">
+        <v>2.75</v>
+      </c>
+      <c r="BG301">
+        <v>1.16</v>
+      </c>
+      <c r="BH301">
+        <v>4.3</v>
+      </c>
+      <c r="BI301">
+        <v>1.33</v>
+      </c>
+      <c r="BJ301">
+        <v>2.93</v>
+      </c>
+      <c r="BK301">
+        <v>1.63</v>
+      </c>
+      <c r="BL301">
+        <v>2.24</v>
+      </c>
+      <c r="BM301">
+        <v>2</v>
+      </c>
+      <c r="BN301">
+        <v>1.81</v>
+      </c>
+      <c r="BO301">
+        <v>2.51</v>
+      </c>
+      <c r="BP301">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>6684251</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45431.4375</v>
+      </c>
+      <c r="F302">
+        <v>34</v>
+      </c>
+      <c r="G302" t="s">
+        <v>71</v>
+      </c>
+      <c r="H302" t="s">
+        <v>78</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="L302">
+        <v>5</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>5</v>
+      </c>
+      <c r="O302" t="s">
+        <v>303</v>
+      </c>
+      <c r="P302" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q302">
+        <v>2.52</v>
+      </c>
+      <c r="R302">
+        <v>2.43</v>
+      </c>
+      <c r="S302">
+        <v>3.74</v>
+      </c>
+      <c r="T302">
+        <v>1.28</v>
+      </c>
+      <c r="U302">
+        <v>3.44</v>
+      </c>
+      <c r="V302">
+        <v>2.35</v>
+      </c>
+      <c r="W302">
+        <v>1.55</v>
+      </c>
+      <c r="X302">
+        <v>5.35</v>
+      </c>
+      <c r="Y302">
+        <v>1.13</v>
+      </c>
+      <c r="Z302">
+        <v>2</v>
+      </c>
+      <c r="AA302">
+        <v>3.25</v>
+      </c>
+      <c r="AB302">
+        <v>3.3</v>
+      </c>
+      <c r="AC302">
+        <v>1.01</v>
+      </c>
+      <c r="AD302">
+        <v>12</v>
+      </c>
+      <c r="AE302">
+        <v>1.17</v>
+      </c>
+      <c r="AF302">
+        <v>4.58</v>
+      </c>
+      <c r="AG302">
+        <v>1.58</v>
+      </c>
+      <c r="AH302">
+        <v>2.38</v>
+      </c>
+      <c r="AI302">
+        <v>1.53</v>
+      </c>
+      <c r="AJ302">
+        <v>2.4</v>
+      </c>
+      <c r="AK302">
+        <v>1.33</v>
+      </c>
+      <c r="AL302">
+        <v>1.27</v>
+      </c>
+      <c r="AM302">
+        <v>1.79</v>
+      </c>
+      <c r="AN302">
+        <v>1.44</v>
+      </c>
+      <c r="AO302">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP302">
+        <v>1.53</v>
+      </c>
+      <c r="AQ302">
+        <v>0.76</v>
+      </c>
+      <c r="AR302">
+        <v>1.48</v>
+      </c>
+      <c r="AS302">
+        <v>1.13</v>
+      </c>
+      <c r="AT302">
+        <v>2.61</v>
+      </c>
+      <c r="AU302">
+        <v>7</v>
+      </c>
+      <c r="AV302">
+        <v>6</v>
+      </c>
+      <c r="AW302">
+        <v>8</v>
+      </c>
+      <c r="AX302">
+        <v>9</v>
+      </c>
+      <c r="AY302">
+        <v>15</v>
+      </c>
+      <c r="AZ302">
+        <v>15</v>
+      </c>
+      <c r="BA302">
+        <v>3</v>
+      </c>
+      <c r="BB302">
+        <v>6</v>
+      </c>
+      <c r="BC302">
+        <v>9</v>
+      </c>
+      <c r="BD302">
+        <v>1.55</v>
+      </c>
+      <c r="BE302">
+        <v>8.5</v>
+      </c>
+      <c r="BF302">
+        <v>3.01</v>
+      </c>
+      <c r="BG302">
+        <v>1.19</v>
+      </c>
+      <c r="BH302">
+        <v>3.98</v>
+      </c>
+      <c r="BI302">
+        <v>1.39</v>
+      </c>
+      <c r="BJ302">
+        <v>2.76</v>
+      </c>
+      <c r="BK302">
+        <v>1.61</v>
+      </c>
+      <c r="BL302">
+        <v>2.29</v>
+      </c>
+      <c r="BM302">
+        <v>1.97</v>
+      </c>
+      <c r="BN302">
+        <v>1.84</v>
+      </c>
+      <c r="BO302">
+        <v>2.46</v>
+      </c>
+      <c r="BP302">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>6684252</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45431.4375</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>72</v>
+      </c>
+      <c r="H303" t="s">
+        <v>82</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>2</v>
+      </c>
+      <c r="K303">
+        <v>2</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303">
+        <v>2</v>
+      </c>
+      <c r="N303">
+        <v>3</v>
+      </c>
+      <c r="O303" t="s">
+        <v>177</v>
+      </c>
+      <c r="P303" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q303">
+        <v>2.6</v>
+      </c>
+      <c r="R303">
+        <v>2.5</v>
+      </c>
+      <c r="S303">
+        <v>3.2</v>
+      </c>
+      <c r="T303">
+        <v>1.25</v>
+      </c>
+      <c r="U303">
+        <v>3.55</v>
+      </c>
+      <c r="V303">
+        <v>2.19</v>
+      </c>
+      <c r="W303">
+        <v>1.7</v>
+      </c>
+      <c r="X303">
+        <v>4.5</v>
+      </c>
+      <c r="Y303">
+        <v>1.17</v>
+      </c>
+      <c r="Z303">
+        <v>2.1</v>
+      </c>
+      <c r="AA303">
+        <v>3.4</v>
+      </c>
+      <c r="AB303">
+        <v>2.9</v>
+      </c>
+      <c r="AC303">
+        <v>1.02</v>
+      </c>
+      <c r="AD303">
+        <v>21</v>
+      </c>
+      <c r="AE303">
+        <v>1.11</v>
+      </c>
+      <c r="AF303">
+        <v>5.5</v>
+      </c>
+      <c r="AG303">
+        <v>1.45</v>
+      </c>
+      <c r="AH303">
+        <v>2.63</v>
+      </c>
+      <c r="AI303">
+        <v>1.4</v>
+      </c>
+      <c r="AJ303">
+        <v>2.7</v>
+      </c>
+      <c r="AK303">
+        <v>1.42</v>
+      </c>
+      <c r="AL303">
+        <v>1.27</v>
+      </c>
+      <c r="AM303">
+        <v>1.57</v>
+      </c>
+      <c r="AN303">
+        <v>1.88</v>
+      </c>
+      <c r="AO303">
+        <v>2.25</v>
+      </c>
+      <c r="AP303">
+        <v>1.76</v>
+      </c>
+      <c r="AQ303">
+        <v>2.29</v>
+      </c>
+      <c r="AR303">
+        <v>1.72</v>
+      </c>
+      <c r="AS303">
+        <v>1.36</v>
+      </c>
+      <c r="AT303">
+        <v>3.08</v>
+      </c>
+      <c r="AU303">
+        <v>8</v>
+      </c>
+      <c r="AV303">
+        <v>9</v>
+      </c>
+      <c r="AW303">
+        <v>17</v>
+      </c>
+      <c r="AX303">
+        <v>4</v>
+      </c>
+      <c r="AY303">
+        <v>25</v>
+      </c>
+      <c r="AZ303">
+        <v>13</v>
+      </c>
+      <c r="BA303">
+        <v>10</v>
+      </c>
+      <c r="BB303">
+        <v>3</v>
+      </c>
+      <c r="BC303">
+        <v>13</v>
+      </c>
+      <c r="BD303">
+        <v>1.7</v>
+      </c>
+      <c r="BE303">
+        <v>9.6</v>
+      </c>
+      <c r="BF303">
+        <v>2.49</v>
+      </c>
+      <c r="BG303">
+        <v>1.1</v>
+      </c>
+      <c r="BH303">
+        <v>5.4</v>
+      </c>
+      <c r="BI303">
+        <v>1.23</v>
+      </c>
+      <c r="BJ303">
+        <v>3.56</v>
+      </c>
+      <c r="BK303">
+        <v>1.43</v>
+      </c>
+      <c r="BL303">
+        <v>2.62</v>
+      </c>
+      <c r="BM303">
+        <v>1.79</v>
+      </c>
+      <c r="BN303">
+        <v>2.01</v>
+      </c>
+      <c r="BO303">
+        <v>2.22</v>
+      </c>
+      <c r="BP303">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>6684253</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45431.4375</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>76</v>
+      </c>
+      <c r="H304" t="s">
+        <v>84</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>2</v>
+      </c>
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>2</v>
+      </c>
+      <c r="O304" t="s">
+        <v>304</v>
+      </c>
+      <c r="P304" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q304">
+        <v>2.5</v>
+      </c>
+      <c r="R304">
+        <v>2.45</v>
+      </c>
+      <c r="S304">
+        <v>3.3</v>
+      </c>
+      <c r="T304">
+        <v>1.23</v>
+      </c>
+      <c r="U304">
+        <v>3.9</v>
+      </c>
+      <c r="V304">
+        <v>2.05</v>
+      </c>
+      <c r="W304">
+        <v>1.68</v>
+      </c>
+      <c r="X304">
+        <v>4.25</v>
+      </c>
+      <c r="Y304">
+        <v>1.18</v>
+      </c>
+      <c r="Z304">
+        <v>2.1</v>
+      </c>
+      <c r="AA304">
+        <v>3.45</v>
+      </c>
+      <c r="AB304">
+        <v>2.9</v>
+      </c>
+      <c r="AC304">
+        <v>1.02</v>
+      </c>
+      <c r="AD304">
+        <v>22.5</v>
+      </c>
+      <c r="AE304">
+        <v>1.13</v>
+      </c>
+      <c r="AF304">
+        <v>6</v>
+      </c>
+      <c r="AG304">
+        <v>1.43</v>
+      </c>
+      <c r="AH304">
+        <v>2.7</v>
+      </c>
+      <c r="AI304">
+        <v>1.36</v>
+      </c>
+      <c r="AJ304">
+        <v>2.8</v>
+      </c>
+      <c r="AK304">
+        <v>1.35</v>
+      </c>
+      <c r="AL304">
+        <v>1.3</v>
+      </c>
+      <c r="AM304">
+        <v>1.68</v>
+      </c>
+      <c r="AN304">
+        <v>1.94</v>
+      </c>
+      <c r="AO304">
+        <v>0.75</v>
+      </c>
+      <c r="AP304">
+        <v>2</v>
+      </c>
+      <c r="AQ304">
+        <v>0.71</v>
+      </c>
+      <c r="AR304">
+        <v>1.61</v>
+      </c>
+      <c r="AS304">
+        <v>1.38</v>
+      </c>
+      <c r="AT304">
+        <v>2.99</v>
+      </c>
+      <c r="AU304">
+        <v>3</v>
+      </c>
+      <c r="AV304">
+        <v>7</v>
+      </c>
+      <c r="AW304">
+        <v>11</v>
+      </c>
+      <c r="AX304">
+        <v>6</v>
+      </c>
+      <c r="AY304">
+        <v>14</v>
+      </c>
+      <c r="AZ304">
+        <v>13</v>
+      </c>
+      <c r="BA304">
+        <v>3</v>
+      </c>
+      <c r="BB304">
+        <v>3</v>
+      </c>
+      <c r="BC304">
+        <v>6</v>
+      </c>
+      <c r="BD304">
+        <v>1.67</v>
+      </c>
+      <c r="BE304">
+        <v>9.5</v>
+      </c>
+      <c r="BF304">
+        <v>2.58</v>
+      </c>
+      <c r="BG304">
+        <v>1.16</v>
+      </c>
+      <c r="BH304">
+        <v>4.3</v>
+      </c>
+      <c r="BI304">
+        <v>1.33</v>
+      </c>
+      <c r="BJ304">
+        <v>2.91</v>
+      </c>
+      <c r="BK304">
+        <v>1.66</v>
+      </c>
+      <c r="BL304">
+        <v>2.22</v>
+      </c>
+      <c r="BM304">
+        <v>2.04</v>
+      </c>
+      <c r="BN304">
+        <v>1.78</v>
+      </c>
+      <c r="BO304">
+        <v>2.62</v>
+      </c>
+      <c r="BP304">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>6684254</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45431.4375</v>
+      </c>
+      <c r="F305">
+        <v>34</v>
+      </c>
+      <c r="G305" t="s">
+        <v>77</v>
+      </c>
+      <c r="H305" t="s">
+        <v>79</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305">
+        <v>2</v>
+      </c>
+      <c r="N305">
+        <v>3</v>
+      </c>
+      <c r="O305" t="s">
+        <v>182</v>
+      </c>
+      <c r="P305" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q305">
+        <v>2.65</v>
+      </c>
+      <c r="R305">
+        <v>2.45</v>
+      </c>
+      <c r="S305">
+        <v>3.1</v>
+      </c>
+      <c r="T305">
+        <v>1.27</v>
+      </c>
+      <c r="U305">
+        <v>3.4</v>
+      </c>
+      <c r="V305">
+        <v>2.2</v>
+      </c>
+      <c r="W305">
+        <v>1.6</v>
+      </c>
+      <c r="X305">
+        <v>4.7</v>
+      </c>
+      <c r="Y305">
+        <v>1.15</v>
+      </c>
+      <c r="Z305">
+        <v>2.2</v>
+      </c>
+      <c r="AA305">
+        <v>3.45</v>
+      </c>
+      <c r="AB305">
+        <v>2.75</v>
+      </c>
+      <c r="AC305">
+        <v>1.02</v>
+      </c>
+      <c r="AD305">
+        <v>19.5</v>
+      </c>
+      <c r="AE305">
+        <v>1.17</v>
+      </c>
+      <c r="AF305">
+        <v>5</v>
+      </c>
+      <c r="AG305">
+        <v>1.56</v>
+      </c>
+      <c r="AH305">
+        <v>2.43</v>
+      </c>
+      <c r="AI305">
+        <v>1.42</v>
+      </c>
+      <c r="AJ305">
+        <v>2.6</v>
+      </c>
+      <c r="AK305">
+        <v>1.42</v>
+      </c>
+      <c r="AL305">
+        <v>1.27</v>
+      </c>
+      <c r="AM305">
+        <v>1.57</v>
+      </c>
+      <c r="AN305">
+        <v>1.25</v>
+      </c>
+      <c r="AO305">
+        <v>1.5</v>
+      </c>
+      <c r="AP305">
+        <v>1.18</v>
+      </c>
+      <c r="AQ305">
+        <v>1.59</v>
+      </c>
+      <c r="AR305">
+        <v>1.36</v>
+      </c>
+      <c r="AS305">
+        <v>1.27</v>
+      </c>
+      <c r="AT305">
+        <v>2.63</v>
+      </c>
+      <c r="AU305">
+        <v>6</v>
+      </c>
+      <c r="AV305">
+        <v>8</v>
+      </c>
+      <c r="AW305">
+        <v>9</v>
+      </c>
+      <c r="AX305">
+        <v>8</v>
+      </c>
+      <c r="AY305">
+        <v>15</v>
+      </c>
+      <c r="AZ305">
+        <v>16</v>
+      </c>
+      <c r="BA305">
+        <v>1</v>
+      </c>
+      <c r="BB305">
+        <v>6</v>
+      </c>
+      <c r="BC305">
+        <v>7</v>
+      </c>
+      <c r="BD305">
+        <v>2.02</v>
+      </c>
+      <c r="BE305">
+        <v>9</v>
+      </c>
+      <c r="BF305">
+        <v>2.05</v>
+      </c>
+      <c r="BG305">
+        <v>1.18</v>
+      </c>
+      <c r="BH305">
+        <v>4.1</v>
+      </c>
+      <c r="BI305">
+        <v>1.36</v>
+      </c>
+      <c r="BJ305">
+        <v>2.79</v>
+      </c>
+      <c r="BK305">
+        <v>1.8</v>
+      </c>
+      <c r="BL305">
+        <v>2</v>
+      </c>
+      <c r="BM305">
+        <v>2.11</v>
+      </c>
+      <c r="BN305">
+        <v>1.72</v>
+      </c>
+      <c r="BO305">
+        <v>2.52</v>
+      </c>
+      <c r="BP305">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>6684255</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45431.4375</v>
+      </c>
+      <c r="F306">
+        <v>34</v>
+      </c>
+      <c r="G306" t="s">
+        <v>83</v>
+      </c>
+      <c r="H306" t="s">
+        <v>85</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+      <c r="M306">
+        <v>3</v>
+      </c>
+      <c r="N306">
+        <v>3</v>
+      </c>
+      <c r="O306" t="s">
+        <v>96</v>
+      </c>
+      <c r="P306" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q306">
+        <v>3.04</v>
+      </c>
+      <c r="R306">
+        <v>2.62</v>
+      </c>
+      <c r="S306">
+        <v>2.62</v>
+      </c>
+      <c r="T306">
+        <v>1.17</v>
+      </c>
+      <c r="U306">
+        <v>4.65</v>
+      </c>
+      <c r="V306">
+        <v>1.87</v>
+      </c>
+      <c r="W306">
+        <v>1.88</v>
+      </c>
+      <c r="X306">
+        <v>3.64</v>
+      </c>
+      <c r="Y306">
+        <v>1.26</v>
+      </c>
+      <c r="Z306">
+        <v>2.8</v>
+      </c>
+      <c r="AA306">
+        <v>3.6</v>
+      </c>
+      <c r="AB306">
+        <v>2.1</v>
+      </c>
+      <c r="AC306">
+        <v>1.01</v>
+      </c>
+      <c r="AD306">
+        <v>33.5</v>
+      </c>
+      <c r="AE306">
+        <v>1.05</v>
+      </c>
+      <c r="AF306">
+        <v>7</v>
+      </c>
+      <c r="AG306">
+        <v>1.3</v>
+      </c>
+      <c r="AH306">
+        <v>3.33</v>
+      </c>
+      <c r="AI306">
+        <v>1.3</v>
+      </c>
+      <c r="AJ306">
+        <v>3.25</v>
+      </c>
+      <c r="AK306">
+        <v>1.66</v>
+      </c>
+      <c r="AL306">
+        <v>1.23</v>
+      </c>
+      <c r="AM306">
+        <v>1.46</v>
+      </c>
+      <c r="AN306">
+        <v>1.38</v>
+      </c>
+      <c r="AO306">
+        <v>1.25</v>
+      </c>
+      <c r="AP306">
+        <v>1.29</v>
+      </c>
+      <c r="AQ306">
+        <v>1.35</v>
+      </c>
+      <c r="AR306">
+        <v>1.34</v>
+      </c>
+      <c r="AS306">
+        <v>1.45</v>
+      </c>
+      <c r="AT306">
+        <v>2.79</v>
+      </c>
+      <c r="AU306">
+        <v>8</v>
+      </c>
+      <c r="AV306">
+        <v>6</v>
+      </c>
+      <c r="AW306">
+        <v>3</v>
+      </c>
+      <c r="AX306">
+        <v>13</v>
+      </c>
+      <c r="AY306">
+        <v>11</v>
+      </c>
+      <c r="AZ306">
+        <v>19</v>
+      </c>
+      <c r="BA306">
+        <v>2</v>
+      </c>
+      <c r="BB306">
+        <v>5</v>
+      </c>
+      <c r="BC306">
+        <v>7</v>
+      </c>
+      <c r="BD306">
+        <v>2.1</v>
+      </c>
+      <c r="BE306">
+        <v>8</v>
+      </c>
+      <c r="BF306">
+        <v>1.91</v>
+      </c>
+      <c r="BG306">
+        <v>1.16</v>
+      </c>
+      <c r="BH306">
+        <v>4.33</v>
+      </c>
+      <c r="BI306">
+        <v>1.33</v>
+      </c>
+      <c r="BJ306">
+        <v>2.93</v>
+      </c>
+      <c r="BK306">
+        <v>1.61</v>
+      </c>
+      <c r="BL306">
+        <v>2.28</v>
+      </c>
+      <c r="BM306">
+        <v>1.96</v>
+      </c>
+      <c r="BN306">
+        <v>1.85</v>
+      </c>
+      <c r="BO306">
+        <v>2.44</v>
+      </c>
+      <c r="BP306">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>6684257</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45431.4375</v>
+      </c>
+      <c r="F307">
+        <v>34</v>
+      </c>
+      <c r="G307" t="s">
+        <v>74</v>
+      </c>
+      <c r="H307" t="s">
+        <v>81</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+      <c r="M307">
+        <v>2</v>
+      </c>
+      <c r="N307">
+        <v>3</v>
+      </c>
+      <c r="O307" t="s">
+        <v>198</v>
+      </c>
+      <c r="P307" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q307">
+        <v>3.5</v>
+      </c>
+      <c r="R307">
+        <v>2.38</v>
+      </c>
+      <c r="S307">
+        <v>2.59</v>
+      </c>
+      <c r="T307">
+        <v>1.27</v>
+      </c>
+      <c r="U307">
+        <v>3.55</v>
+      </c>
+      <c r="V307">
+        <v>2.26</v>
+      </c>
+      <c r="W307">
+        <v>1.6</v>
+      </c>
+      <c r="X307">
+        <v>5.1</v>
+      </c>
+      <c r="Y307">
+        <v>1.15</v>
+      </c>
+      <c r="Z307">
+        <v>2.85</v>
+      </c>
+      <c r="AA307">
+        <v>4</v>
+      </c>
+      <c r="AB307">
+        <v>1.95</v>
+      </c>
+      <c r="AC307">
+        <v>1.03</v>
+      </c>
+      <c r="AD307">
+        <v>19</v>
+      </c>
+      <c r="AE307">
+        <v>1.14</v>
+      </c>
+      <c r="AF307">
+        <v>4.7</v>
+      </c>
+      <c r="AG307">
+        <v>1.56</v>
+      </c>
+      <c r="AH307">
+        <v>2.43</v>
+      </c>
+      <c r="AI307">
+        <v>1.49</v>
+      </c>
+      <c r="AJ307">
+        <v>2.51</v>
+      </c>
+      <c r="AK307">
+        <v>1.71</v>
+      </c>
+      <c r="AL307">
+        <v>1.27</v>
+      </c>
+      <c r="AM307">
+        <v>1.38</v>
+      </c>
+      <c r="AN307">
+        <v>1.06</v>
+      </c>
+      <c r="AO307">
+        <v>1.75</v>
+      </c>
+      <c r="AP307">
+        <v>1</v>
+      </c>
+      <c r="AQ307">
+        <v>1.82</v>
+      </c>
+      <c r="AR307">
+        <v>1.2</v>
+      </c>
+      <c r="AS307">
+        <v>1.48</v>
+      </c>
+      <c r="AT307">
+        <v>2.68</v>
+      </c>
+      <c r="AU307">
+        <v>7</v>
+      </c>
+      <c r="AV307">
+        <v>9</v>
+      </c>
+      <c r="AW307">
+        <v>8</v>
+      </c>
+      <c r="AX307">
+        <v>12</v>
+      </c>
+      <c r="AY307">
+        <v>15</v>
+      </c>
+      <c r="AZ307">
+        <v>21</v>
+      </c>
+      <c r="BA307">
+        <v>8</v>
+      </c>
+      <c r="BB307">
+        <v>8</v>
+      </c>
+      <c r="BC307">
+        <v>16</v>
+      </c>
+      <c r="BD307">
+        <v>2.54</v>
+      </c>
+      <c r="BE307">
+        <v>8</v>
+      </c>
+      <c r="BF307">
+        <v>1.69</v>
+      </c>
+      <c r="BG307">
+        <v>1.23</v>
+      </c>
+      <c r="BH307">
+        <v>3.56</v>
+      </c>
+      <c r="BI307">
+        <v>1.51</v>
+      </c>
+      <c r="BJ307">
+        <v>2.51</v>
+      </c>
+      <c r="BK307">
+        <v>1.83</v>
+      </c>
+      <c r="BL307">
+        <v>1.98</v>
+      </c>
+      <c r="BM307">
+        <v>2.25</v>
+      </c>
+      <c r="BN307">
+        <v>1.62</v>
+      </c>
+      <c r="BO307">
+        <v>3.04</v>
+      </c>
+      <c r="BP307">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20232024.xlsx
@@ -63701,13 +63701,13 @@
         <v>14</v>
       </c>
       <c r="BA301">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB301">
         <v>11</v>
       </c>
       <c r="BC301">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD301">
         <v>1.6</v>
